--- a/files/convención2020.xlsx
+++ b/files/convención2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/GitHub/tresquintos.github.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50466596-0C6B-C140-999A-C0507992F500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887B75A9-E3C2-C747-908D-C160A784834B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -854,6 +854,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="0"/>
       </right>
@@ -918,7 +927,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
@@ -971,8 +980,8 @@
     <xf numFmtId="0" fontId="19" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -994,13 +1003,14 @@
     <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,6 +1032,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1932,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AX50" sqref="AX50"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2141,43 +2154,43 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="65"/>
+      <c r="AV4" s="65"/>
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="65"/>
       <c r="AY4" s="9"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.2">
@@ -3958,41 +3971,41 @@
       <c r="O40" s="4"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
-      <c r="R40" s="67" t="s">
+      <c r="R40" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="S40" s="67"/>
-      <c r="T40" s="67"/>
-      <c r="U40" s="67"/>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
       <c r="Z40" s="8"/>
-      <c r="AA40" s="66" t="s">
+      <c r="AA40" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
-      <c r="AD40" s="66"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="66"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
+      <c r="AD40" s="67"/>
+      <c r="AE40" s="67"/>
+      <c r="AF40" s="67"/>
       <c r="AG40" s="59"/>
-      <c r="AH40" s="66" t="s">
+      <c r="AH40" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AI40" s="66"/>
-      <c r="AJ40" s="66"/>
-      <c r="AK40" s="66"/>
-      <c r="AL40" s="66"/>
-      <c r="AM40" s="66"/>
+      <c r="AI40" s="67"/>
+      <c r="AJ40" s="67"/>
+      <c r="AK40" s="67"/>
+      <c r="AL40" s="67"/>
+      <c r="AM40" s="67"/>
       <c r="AN40" s="59"/>
-      <c r="AO40" s="66" t="s">
+      <c r="AO40" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AP40" s="66"/>
-      <c r="AQ40" s="66"/>
-      <c r="AR40" s="66"/>
+      <c r="AP40" s="67"/>
+      <c r="AQ40" s="67"/>
+      <c r="AR40" s="67"/>
       <c r="AS40" s="5"/>
       <c r="AT40" s="5"/>
       <c r="AU40" s="5"/>
@@ -4042,10 +4055,10 @@
       <c r="AL41" s="59"/>
       <c r="AM41" s="59"/>
       <c r="AN41" s="59"/>
-      <c r="AO41" s="68"/>
-      <c r="AP41" s="68"/>
-      <c r="AQ41" s="68"/>
-      <c r="AR41" s="68"/>
+      <c r="AO41" s="69"/>
+      <c r="AP41" s="69"/>
+      <c r="AQ41" s="69"/>
+      <c r="AR41" s="69"/>
       <c r="AS41" s="5"/>
       <c r="AT41" s="5"/>
       <c r="AU41" s="5"/>
@@ -4103,12 +4116,12 @@
       <c r="AL42" s="19"/>
       <c r="AM42" s="19"/>
       <c r="AN42" s="59"/>
-      <c r="AO42" s="65" t="s">
+      <c r="AO42" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AP42" s="65"/>
-      <c r="AQ42" s="65"/>
-      <c r="AR42" s="65"/>
+      <c r="AP42" s="66"/>
+      <c r="AQ42" s="66"/>
+      <c r="AR42" s="66"/>
       <c r="AS42" s="5"/>
       <c r="AT42" s="5"/>
       <c r="AU42" s="5"/>
@@ -4158,10 +4171,10 @@
       <c r="AL43" s="59"/>
       <c r="AM43" s="59"/>
       <c r="AN43" s="59"/>
-      <c r="AO43" s="68"/>
-      <c r="AP43" s="68"/>
-      <c r="AQ43" s="68"/>
-      <c r="AR43" s="68"/>
+      <c r="AO43" s="69"/>
+      <c r="AP43" s="69"/>
+      <c r="AQ43" s="69"/>
+      <c r="AR43" s="69"/>
       <c r="AS43" s="5"/>
       <c r="AT43" s="5"/>
       <c r="AU43" s="5"/>
@@ -4189,7 +4202,7 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="52"/>
-      <c r="S44" s="75" t="s">
+      <c r="S44" s="76" t="s">
         <v>1</v>
       </c>
       <c r="T44" s="9"/>
@@ -4223,13 +4236,13 @@
       <c r="AL44" s="63"/>
       <c r="AM44" s="63"/>
       <c r="AN44" s="64"/>
-      <c r="AO44" s="69">
+      <c r="AO44" s="70">
         <f>AD44-AK44</f>
         <v>2.0630157539384845E-2</v>
       </c>
-      <c r="AP44" s="69"/>
-      <c r="AQ44" s="69"/>
-      <c r="AR44" s="69"/>
+      <c r="AP44" s="70"/>
+      <c r="AQ44" s="70"/>
+      <c r="AR44" s="70"/>
       <c r="AS44" s="5"/>
       <c r="AT44" s="5"/>
       <c r="AU44" s="5"/>
@@ -4257,7 +4270,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="53"/>
-      <c r="S45" s="72" t="s">
+      <c r="S45" s="73" t="s">
         <v>0</v>
       </c>
       <c r="T45" s="9"/>
@@ -4291,13 +4304,13 @@
       <c r="AL45" s="63"/>
       <c r="AM45" s="63"/>
       <c r="AN45" s="64"/>
-      <c r="AO45" s="69">
+      <c r="AO45" s="70">
         <f>AD45-AK45</f>
         <v>-4.5048762190547653E-2</v>
       </c>
-      <c r="AP45" s="69"/>
-      <c r="AQ45" s="69"/>
-      <c r="AR45" s="69"/>
+      <c r="AP45" s="70"/>
+      <c r="AQ45" s="70"/>
+      <c r="AR45" s="70"/>
       <c r="AS45" s="5"/>
       <c r="AT45" s="5"/>
       <c r="AU45" s="5"/>
@@ -4325,7 +4338,7 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="54"/>
-      <c r="S46" s="72" t="s">
+      <c r="S46" s="73" t="s">
         <v>2</v>
       </c>
       <c r="T46" s="9"/>
@@ -4359,13 +4372,13 @@
       <c r="AL46" s="63"/>
       <c r="AM46" s="63"/>
       <c r="AN46" s="64"/>
-      <c r="AO46" s="69">
+      <c r="AO46" s="70">
         <f>AD46-AK46</f>
         <v>7.7269317329332343E-3</v>
       </c>
-      <c r="AP46" s="69"/>
-      <c r="AQ46" s="69"/>
-      <c r="AR46" s="69"/>
+      <c r="AP46" s="70"/>
+      <c r="AQ46" s="70"/>
+      <c r="AR46" s="70"/>
       <c r="AS46" s="5"/>
       <c r="AT46" s="5"/>
       <c r="AU46" s="5"/>
@@ -4386,7 +4399,7 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="10"/>
-      <c r="S47" s="73" t="s">
+      <c r="S47" s="74" t="s">
         <v>17</v>
       </c>
       <c r="T47" s="9"/>
@@ -4420,13 +4433,13 @@
       <c r="AL47" s="63"/>
       <c r="AM47" s="63"/>
       <c r="AN47" s="64"/>
-      <c r="AO47" s="69">
+      <c r="AO47" s="70">
         <f>AD47-AK47</f>
         <v>1.1965491372843223E-2</v>
       </c>
-      <c r="AP47" s="69"/>
-      <c r="AQ47" s="69"/>
-      <c r="AR47" s="69"/>
+      <c r="AP47" s="70"/>
+      <c r="AQ47" s="70"/>
+      <c r="AR47" s="70"/>
       <c r="AS47" s="5"/>
       <c r="AT47" s="5"/>
       <c r="AU47" s="5"/>
@@ -4447,7 +4460,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="14"/>
-      <c r="S48" s="73" t="s">
+      <c r="S48" s="74" t="s">
         <v>3</v>
       </c>
       <c r="T48" s="9"/>
@@ -4481,13 +4494,13 @@
       <c r="AL48" s="63"/>
       <c r="AM48" s="63"/>
       <c r="AN48" s="64"/>
-      <c r="AO48" s="69">
+      <c r="AO48" s="70">
         <f>AD48-AK48</f>
         <v>-1.9504876219054765E-2</v>
       </c>
-      <c r="AP48" s="69"/>
-      <c r="AQ48" s="69"/>
-      <c r="AR48" s="69"/>
+      <c r="AP48" s="70"/>
+      <c r="AQ48" s="70"/>
+      <c r="AR48" s="70"/>
       <c r="AS48" s="5"/>
       <c r="AT48" s="5"/>
       <c r="AU48" s="5"/>
@@ -4508,7 +4521,7 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="12"/>
-      <c r="S49" s="74" t="s">
+      <c r="S49" s="75" t="s">
         <v>5</v>
       </c>
       <c r="T49" s="9"/>
@@ -4542,13 +4555,13 @@
       <c r="AL49" s="63"/>
       <c r="AM49" s="63"/>
       <c r="AN49" s="64"/>
-      <c r="AO49" s="69">
+      <c r="AO49" s="70">
         <f>AD49-AK49</f>
         <v>-1.0427606901725436E-2</v>
       </c>
-      <c r="AP49" s="69"/>
-      <c r="AQ49" s="69"/>
-      <c r="AR49" s="69"/>
+      <c r="AP49" s="70"/>
+      <c r="AQ49" s="70"/>
+      <c r="AR49" s="70"/>
       <c r="AS49" s="5"/>
       <c r="AT49" s="5"/>
       <c r="AU49" s="5"/>
@@ -4569,13 +4582,13 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="15"/>
-      <c r="S50" s="71" t="s">
+      <c r="S50" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="T50" s="70"/>
-      <c r="U50" s="70"/>
-      <c r="V50" s="70"/>
-      <c r="W50" s="70"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="71"/>
+      <c r="V50" s="71"/>
+      <c r="W50" s="71"/>
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
       <c r="Z50" s="9"/>
@@ -4603,13 +4616,13 @@
       <c r="AL50" s="63"/>
       <c r="AM50" s="63"/>
       <c r="AN50" s="64"/>
-      <c r="AO50" s="69">
+      <c r="AO50" s="70">
         <f>AD50-AK50</f>
         <v>7.6519129782445655E-3</v>
       </c>
-      <c r="AP50" s="69"/>
-      <c r="AQ50" s="69"/>
-      <c r="AR50" s="69"/>
+      <c r="AP50" s="70"/>
+      <c r="AQ50" s="70"/>
+      <c r="AR50" s="70"/>
       <c r="AS50" s="5"/>
       <c r="AT50" s="5"/>
       <c r="AU50" s="5"/>
@@ -4630,7 +4643,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="17"/>
-      <c r="S51" s="74" t="s">
+      <c r="S51" s="75" t="s">
         <v>9</v>
       </c>
       <c r="T51" s="9"/>
@@ -4664,13 +4677,13 @@
       <c r="AL51" s="63"/>
       <c r="AM51" s="63"/>
       <c r="AN51" s="64"/>
-      <c r="AO51" s="69">
+      <c r="AO51" s="70">
         <f>AD51-AK51</f>
         <v>2.7006751687921979E-2</v>
       </c>
-      <c r="AP51" s="69"/>
-      <c r="AQ51" s="69"/>
-      <c r="AR51" s="69"/>
+      <c r="AP51" s="70"/>
+      <c r="AQ51" s="70"/>
+      <c r="AR51" s="70"/>
       <c r="AS51" s="5"/>
       <c r="AT51" s="5"/>
       <c r="AU51" s="5"/>
@@ -5951,6 +5964,7 @@
   </sheetData>
   <mergeCells count="51">
     <mergeCell ref="R40:Y40"/>
+    <mergeCell ref="P4:AT4"/>
     <mergeCell ref="AO46:AR46"/>
     <mergeCell ref="AO47:AR47"/>
     <mergeCell ref="AO48:AR48"/>
@@ -5996,7 +6010,6 @@
     <mergeCell ref="AD48:AF48"/>
     <mergeCell ref="AD49:AF49"/>
     <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="P4:AX4"/>
     <mergeCell ref="P23:AX23"/>
     <mergeCell ref="AD44:AF44"/>
     <mergeCell ref="AH44:AJ44"/>

--- a/files/convención2020.xlsx
+++ b/files/convención2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/GitHub/tresquintos.github.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEE9D5D-D246-384F-8566-D4248D05C50A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA0EC73-83F7-6247-B8B4-A295B71D173A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>Derecha Tradicional</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Tabla Comparativa</t>
+  </si>
+  <si>
+    <t>Coalición / Sector</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,19 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE04D39"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,8 +515,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2D065"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -763,17 +760,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -908,7 +894,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
@@ -916,54 +902,46 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -971,56 +949,68 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1071,6 +1061,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF2D065"/>
       <color rgb="FFE04D39"/>
       <color rgb="FFDD6AD5"/>
       <color rgb="FFC01D00"/>
@@ -1092,14 +1083,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -1116,7 +1107,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14338300" y="9309100"/>
+          <a:off x="14960600" y="10693400"/>
           <a:ext cx="88900" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1158,14 +1149,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -1182,7 +1173,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14338300" y="9512300"/>
+          <a:off x="14960600" y="10896600"/>
           <a:ext cx="88900" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1224,14 +1215,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -1248,7 +1239,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14338300" y="8712200"/>
+          <a:off x="14960600" y="10096500"/>
           <a:ext cx="88900" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1290,14 +1281,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -1314,7 +1305,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="14338300" y="8509000"/>
+          <a:off x="14960600" y="9893300"/>
           <a:ext cx="88900" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1358,14 +1349,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -1382,7 +1373,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="14338300" y="8902700"/>
+          <a:off x="14960600" y="10287000"/>
           <a:ext cx="88900" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1426,14 +1417,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -1450,7 +1441,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="14338300" y="9918700"/>
+          <a:off x="14960600" y="11303000"/>
           <a:ext cx="88900" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1494,14 +1485,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -1518,7 +1509,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="14338300" y="9728200"/>
+          <a:off x="14960600" y="11112500"/>
           <a:ext cx="88900" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1562,14 +1553,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -1586,7 +1577,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="14338300" y="9105900"/>
+          <a:off x="14960600" y="10490200"/>
           <a:ext cx="88900" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1928,10 +1919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ62"/>
+  <dimension ref="A1:BN62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="AZ60" sqref="AZ60"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1941,14 +1932,14 @@
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" style="79" customWidth="1"/>
-    <col min="11" max="51" width="2.83203125" customWidth="1"/>
-    <col min="52" max="53" width="2.83203125" style="5" customWidth="1"/>
-    <col min="54" max="56" width="2.83203125" style="4" customWidth="1"/>
-    <col min="57" max="59" width="10.83203125" style="4"/>
+    <col min="10" max="10" width="2.83203125" style="68" customWidth="1"/>
+    <col min="11" max="55" width="2.83203125" customWidth="1"/>
+    <col min="56" max="57" width="2.83203125" style="5" customWidth="1"/>
+    <col min="58" max="60" width="2.83203125" style="4" customWidth="1"/>
+    <col min="61" max="63" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1970,13 +1961,17 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="77"/>
+      <c r="J1" s="66"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2001,17 +1996,17 @@
       <c r="G2" s="3"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="78"/>
+      <c r="J2" s="67"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -2043,11 +2038,15 @@
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
       <c r="AY2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-    </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2072,17 +2071,17 @@
       <c r="G3" s="3"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="19" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
@@ -2115,12 +2114,16 @@
       <c r="AV3" s="10"/>
       <c r="AW3" s="10"/>
       <c r="AX3" s="10"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5" t="s">
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2150,47 +2153,51 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="64"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="5"/>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="73"/>
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="5"/>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2221,45 +2228,49 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="22"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="BH5" s="5"/>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BL5" s="5"/>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2290,45 +2301,49 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="33"/>
-      <c r="AQ6" s="33"/>
-      <c r="AR6" s="34"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="36"/>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="9"/>
-      <c r="BH6" s="5"/>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="27"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="29"/>
+      <c r="AU6" s="29"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="31"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="33"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="9"/>
+      <c r="BL6" s="5"/>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2359,45 +2374,49 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="33"/>
-      <c r="AR7" s="34"/>
-      <c r="AS7" s="34"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="12"/>
-      <c r="AY7" s="9"/>
-      <c r="BH7" s="5"/>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="33"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="9"/>
+      <c r="BL7" s="5"/>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2428,45 +2447,49 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="33"/>
-      <c r="AQ8" s="33"/>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="34"/>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="9"/>
-      <c r="BH8" s="5"/>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="29"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="30"/>
+      <c r="AW8" s="30"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="33"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="9"/>
+      <c r="BL8" s="5"/>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2497,45 +2520,49 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33"/>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="36"/>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="12"/>
-      <c r="AW9" s="12"/>
-      <c r="AX9" s="12"/>
-      <c r="AY9" s="9"/>
-      <c r="BH9" s="5"/>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29"/>
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="32"/>
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="9"/>
+      <c r="BL9" s="5"/>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="7"/>
@@ -2544,45 +2571,49 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="33"/>
-      <c r="AP10" s="33"/>
-      <c r="AQ10" s="33"/>
-      <c r="AR10" s="18"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="47"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="12"/>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
-      <c r="AY10" s="9"/>
-      <c r="BH10" s="5"/>
-    </row>
-    <row r="11" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="85"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="35"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="29"/>
+      <c r="AU10" s="29"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="41"/>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="9"/>
+      <c r="BL10" s="5"/>
+    </row>
+    <row r="11" spans="1:66" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="7"/>
@@ -2591,50 +2622,54 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="37"/>
-      <c r="AV11" s="12"/>
-      <c r="AW11" s="12"/>
-      <c r="AX11" s="12"/>
-      <c r="AY11" s="9"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="9"/>
       <c r="BF11" s="4"/>
       <c r="BG11" s="4"/>
-    </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
+      <c r="BK11" s="4"/>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="7"/>
@@ -2643,45 +2678,49 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="12"/>
-      <c r="AW12" s="12"/>
-      <c r="AX12" s="12"/>
-      <c r="AY12" s="9"/>
-      <c r="BH12" s="5"/>
-    </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="43"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="9"/>
+      <c r="BL12" s="5"/>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="7"/>
@@ -2690,13 +2729,13 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="10"/>
+      <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="10"/>
+      <c r="S13" s="9"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
@@ -2721,14 +2760,18 @@
       <c r="AR13" s="10"/>
       <c r="AS13" s="10"/>
       <c r="AT13" s="10"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="9"/>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="9"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
       <c r="AY13" s="9"/>
-      <c r="BH13" s="5"/>
-    </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BL13" s="5"/>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="7"/>
@@ -2737,51 +2780,55 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="9" t="s">
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="10" t="s">
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="14" t="s">
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="9"/>
+      <c r="AS14" s="13"/>
       <c r="AT14" s="10"/>
       <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="9"/>
       <c r="AX14" s="10"/>
-      <c r="AY14" s="5"/>
-      <c r="BH14" s="5"/>
-    </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="5"/>
+      <c r="BL14" s="5"/>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="7"/>
@@ -2790,51 +2837,55 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="9" t="s">
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="10" t="s">
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="14" t="s">
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="9"/>
+      <c r="AS15" s="13"/>
       <c r="AT15" s="10"/>
       <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="10"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="9"/>
       <c r="AX15" s="10"/>
-      <c r="AY15" s="5"/>
-      <c r="BH15" s="5"/>
-    </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="5"/>
+      <c r="BL15" s="5"/>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="7"/>
@@ -2843,49 +2894,53 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="9" t="s">
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
       <c r="AG16" s="10"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="14" t="s">
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="9"/>
+      <c r="AS16" s="13"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="9"/>
       <c r="AX16" s="10"/>
-      <c r="AY16" s="5"/>
-      <c r="BH16" s="5"/>
-    </row>
-    <row r="17" spans="8:59" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="5"/>
+      <c r="BL16" s="5"/>
+    </row>
+    <row r="17" spans="8:63" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="7"/>
@@ -2894,49 +2949,53 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="12"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="9"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
       <c r="AB17" s="9"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
       <c r="AG17" s="10"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="58"/>
-      <c r="AO17" s="58"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
       <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="9"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="52"/>
+      <c r="AS17" s="52"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="10"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="9"/>
       <c r="AX17" s="10"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="10"/>
       <c r="BF17" s="4"/>
       <c r="BG17" s="4"/>
-    </row>
-    <row r="18" spans="8:59" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+    </row>
+    <row r="18" spans="8:63" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="7"/>
@@ -2949,52 +3008,56 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
-      <c r="R18" s="12"/>
+      <c r="R18" s="9"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="9"/>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
       <c r="AD18" s="9"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
       <c r="AI18" s="10"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="12"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="58"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
       <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="12"/>
-      <c r="AU18" s="9"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="52"/>
+      <c r="AU18" s="52"/>
       <c r="AV18" s="10"/>
       <c r="AW18" s="10"/>
-      <c r="AX18" s="10"/>
-      <c r="AY18" s="10"/>
-      <c r="AZ18" s="10" t="s">
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="BA18" s="10"/>
-      <c r="BB18" s="9"/>
-      <c r="BC18" s="9"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-    </row>
-    <row r="19" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="9"/>
+      <c r="BG18" s="9"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+    </row>
+    <row r="19" spans="8:63" x14ac:dyDescent="0.2">
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="7"/>
@@ -3005,13 +3068,13 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
+      <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
-      <c r="U19" s="10"/>
+      <c r="U19" s="9"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
@@ -3041,8 +3104,12 @@
       <c r="AY19" s="10"/>
       <c r="AZ19" s="10"/>
       <c r="BA19" s="10"/>
-    </row>
-    <row r="20" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="10"/>
+      <c r="BE19" s="10"/>
+    </row>
+    <row r="20" spans="8:63" x14ac:dyDescent="0.2">
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="7"/>
@@ -3051,10 +3118,10 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
@@ -3087,8 +3154,12 @@
       <c r="AW20" s="10"/>
       <c r="AX20" s="10"/>
       <c r="AY20" s="10"/>
-    </row>
-    <row r="21" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="AZ20" s="10"/>
+      <c r="BA20" s="10"/>
+      <c r="BB20" s="10"/>
+      <c r="BC20" s="10"/>
+    </row>
+    <row r="21" spans="8:63" x14ac:dyDescent="0.2">
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="7"/>
@@ -3097,10 +3168,10 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
@@ -3133,8 +3204,12 @@
       <c r="AW21" s="10"/>
       <c r="AX21" s="10"/>
       <c r="AY21" s="10"/>
-    </row>
-    <row r="22" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="10"/>
+    </row>
+    <row r="22" spans="8:63" x14ac:dyDescent="0.2">
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="7"/>
@@ -3145,10 +3220,10 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
@@ -3181,11 +3256,15 @@
       <c r="AW22" s="10"/>
       <c r="AX22" s="10"/>
       <c r="AY22" s="10"/>
-      <c r="AZ22" s="5" t="s">
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="8:59" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:63" x14ac:dyDescent="0.2">
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="7"/>
@@ -3194,46 +3273,50 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="20" t="s">
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="20"/>
-      <c r="AI23" s="20"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="20"/>
-      <c r="AL23" s="20"/>
-      <c r="AM23" s="20"/>
-      <c r="AN23" s="20"/>
-      <c r="AO23" s="20"/>
-      <c r="AP23" s="20"/>
-      <c r="AQ23" s="20"/>
-      <c r="AR23" s="20"/>
-      <c r="AS23" s="20"/>
-      <c r="AT23" s="20"/>
-      <c r="AU23" s="20"/>
-      <c r="AV23" s="20"/>
-      <c r="AW23" s="20"/>
-      <c r="AX23" s="20"/>
-      <c r="AY23" s="10"/>
-    </row>
-    <row r="24" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="79"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="79"/>
+      <c r="AK23" s="79"/>
+      <c r="AL23" s="79"/>
+      <c r="AM23" s="79"/>
+      <c r="AN23" s="79"/>
+      <c r="AO23" s="79"/>
+      <c r="AP23" s="79"/>
+      <c r="AQ23" s="79"/>
+      <c r="AR23" s="79"/>
+      <c r="AS23" s="79"/>
+      <c r="AT23" s="79"/>
+      <c r="AU23" s="79"/>
+      <c r="AV23" s="79"/>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="79"/>
+      <c r="AY23" s="79"/>
+      <c r="AZ23" s="79"/>
+      <c r="BA23" s="79"/>
+      <c r="BB23" s="79"/>
+      <c r="BC23" s="10"/>
+    </row>
+    <row r="24" spans="8:63" x14ac:dyDescent="0.2">
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="7"/>
@@ -3242,10 +3325,10 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -3278,8 +3361,12 @@
       <c r="AW24" s="10"/>
       <c r="AX24" s="10"/>
       <c r="AY24" s="10"/>
-    </row>
-    <row r="25" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+    </row>
+    <row r="25" spans="8:63" x14ac:dyDescent="0.2">
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="7"/>
@@ -3288,44 +3375,48 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="29"/>
-      <c r="AL25" s="30"/>
-      <c r="AM25" s="29"/>
-      <c r="AN25" s="29"/>
-      <c r="AO25" s="29"/>
-      <c r="AP25" s="29"/>
-      <c r="AQ25" s="53"/>
-      <c r="AR25" s="32"/>
-      <c r="AS25" s="54"/>
-      <c r="AT25" s="33"/>
-      <c r="AU25" s="33"/>
-      <c r="AV25" s="34"/>
-      <c r="AW25" s="35"/>
-      <c r="AX25" s="34"/>
-      <c r="AY25" s="10"/>
-    </row>
-    <row r="26" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="82"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="82"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="25"/>
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="28"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="29"/>
+      <c r="AZ25" s="30"/>
+      <c r="BA25" s="31"/>
+      <c r="BB25" s="30"/>
+      <c r="BC25" s="10"/>
+    </row>
+    <row r="26" spans="8:63" x14ac:dyDescent="0.2">
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="7"/>
@@ -3334,44 +3425,48 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="29"/>
-      <c r="AL26" s="29"/>
-      <c r="AM26" s="29"/>
-      <c r="AN26" s="29"/>
-      <c r="AO26" s="29"/>
-      <c r="AP26" s="29"/>
-      <c r="AQ26" s="53"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="33"/>
-      <c r="AU26" s="33"/>
-      <c r="AV26" s="34"/>
-      <c r="AW26" s="34"/>
-      <c r="AX26" s="34"/>
-      <c r="AY26" s="10"/>
-    </row>
-    <row r="27" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="82"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="47"/>
+      <c r="AV26" s="28"/>
+      <c r="AW26" s="28"/>
+      <c r="AX26" s="29"/>
+      <c r="AY26" s="29"/>
+      <c r="AZ26" s="30"/>
+      <c r="BA26" s="30"/>
+      <c r="BB26" s="30"/>
+      <c r="BC26" s="10"/>
+    </row>
+    <row r="27" spans="8:63" x14ac:dyDescent="0.2">
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="7"/>
@@ -3380,44 +3475,48 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="29"/>
-      <c r="AL27" s="29"/>
-      <c r="AM27" s="29"/>
-      <c r="AN27" s="29"/>
-      <c r="AO27" s="29"/>
-      <c r="AP27" s="29"/>
-      <c r="AQ27" s="53"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="33"/>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="34"/>
-      <c r="AW27" s="34"/>
-      <c r="AX27" s="12"/>
-      <c r="AY27" s="10"/>
-    </row>
-    <row r="28" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="82"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="25"/>
+      <c r="AS27" s="25"/>
+      <c r="AT27" s="25"/>
+      <c r="AU27" s="47"/>
+      <c r="AV27" s="28"/>
+      <c r="AW27" s="35"/>
+      <c r="AX27" s="29"/>
+      <c r="AY27" s="29"/>
+      <c r="AZ27" s="30"/>
+      <c r="BA27" s="30"/>
+      <c r="BB27" s="11"/>
+      <c r="BC27" s="10"/>
+    </row>
+    <row r="28" spans="8:63" x14ac:dyDescent="0.2">
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="7"/>
@@ -3426,44 +3525,48 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="29"/>
-      <c r="AM28" s="29"/>
-      <c r="AN28" s="29"/>
-      <c r="AO28" s="29"/>
-      <c r="AP28" s="29"/>
-      <c r="AQ28" s="53"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="33"/>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="34"/>
-      <c r="AW28" s="34"/>
-      <c r="AX28" s="12"/>
-      <c r="AY28" s="10"/>
-    </row>
-    <row r="29" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="82"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="25"/>
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="25"/>
+      <c r="AS28" s="25"/>
+      <c r="AT28" s="25"/>
+      <c r="AU28" s="47"/>
+      <c r="AV28" s="28"/>
+      <c r="AW28" s="29"/>
+      <c r="AX28" s="29"/>
+      <c r="AY28" s="29"/>
+      <c r="AZ28" s="30"/>
+      <c r="BA28" s="30"/>
+      <c r="BB28" s="11"/>
+      <c r="BC28" s="10"/>
+    </row>
+    <row r="29" spans="8:63" x14ac:dyDescent="0.2">
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="7"/>
@@ -3472,44 +3575,48 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="15"/>
-      <c r="AJ29" s="15"/>
-      <c r="AK29" s="15"/>
-      <c r="AL29" s="15"/>
-      <c r="AM29" s="15"/>
-      <c r="AN29" s="15"/>
-      <c r="AO29" s="15"/>
-      <c r="AP29" s="56"/>
-      <c r="AQ29" s="39"/>
-      <c r="AR29" s="39"/>
-      <c r="AS29" s="33"/>
-      <c r="AT29" s="33"/>
-      <c r="AU29" s="33"/>
-      <c r="AV29" s="18"/>
-      <c r="AW29" s="18"/>
-      <c r="AX29" s="12"/>
-      <c r="AY29" s="10"/>
-    </row>
-    <row r="30" spans="8:59" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="82"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="82"/>
+      <c r="AM29" s="14"/>
+      <c r="AN29" s="14"/>
+      <c r="AO29" s="14"/>
+      <c r="AP29" s="14"/>
+      <c r="AQ29" s="14"/>
+      <c r="AR29" s="14"/>
+      <c r="AS29" s="14"/>
+      <c r="AT29" s="50"/>
+      <c r="AU29" s="35"/>
+      <c r="AV29" s="35"/>
+      <c r="AW29" s="29"/>
+      <c r="AX29" s="29"/>
+      <c r="AY29" s="29"/>
+      <c r="AZ29" s="17"/>
+      <c r="BA29" s="17"/>
+      <c r="BB29" s="11"/>
+      <c r="BC29" s="10"/>
+    </row>
+    <row r="30" spans="8:63" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="7"/>
@@ -3518,50 +3625,54 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="12"/>
-      <c r="AL30" s="12"/>
-      <c r="AM30" s="12"/>
-      <c r="AN30" s="12"/>
-      <c r="AO30" s="12"/>
-      <c r="AP30" s="12"/>
-      <c r="AQ30" s="12"/>
-      <c r="AR30" s="12"/>
-      <c r="AS30" s="12"/>
-      <c r="AT30" s="12"/>
-      <c r="AU30" s="12"/>
-      <c r="AV30" s="12"/>
-      <c r="AW30" s="12"/>
-      <c r="AX30" s="12"/>
-      <c r="AY30" s="10"/>
-      <c r="BB30" s="4"/>
-      <c r="BC30" s="4"/>
-      <c r="BD30" s="4"/>
-      <c r="BE30" s="4"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="11"/>
+      <c r="AY30" s="11"/>
+      <c r="AZ30" s="11"/>
+      <c r="BA30" s="11"/>
+      <c r="BB30" s="11"/>
+      <c r="BC30" s="10"/>
       <c r="BF30" s="4"/>
       <c r="BG30" s="4"/>
-    </row>
-    <row r="31" spans="8:59" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BH30" s="4"/>
+      <c r="BI30" s="4"/>
+      <c r="BJ30" s="4"/>
+      <c r="BK30" s="4"/>
+    </row>
+    <row r="31" spans="8:63" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="7"/>
@@ -3570,50 +3681,54 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="48"/>
-      <c r="AN31" s="48"/>
-      <c r="AO31" s="48"/>
-      <c r="AP31" s="48"/>
-      <c r="AQ31" s="48"/>
-      <c r="AR31" s="48"/>
-      <c r="AS31" s="48"/>
-      <c r="AT31" s="48"/>
-      <c r="AU31" s="48"/>
-      <c r="AV31" s="48"/>
-      <c r="AW31" s="48"/>
-      <c r="AX31" s="48"/>
-      <c r="AY31" s="10"/>
-      <c r="BB31" s="4"/>
-      <c r="BC31" s="4"/>
-      <c r="BD31" s="4"/>
-      <c r="BE31" s="4"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="42"/>
+      <c r="AL31" s="42"/>
+      <c r="AM31" s="42"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="42"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="42"/>
+      <c r="AW31" s="42"/>
+      <c r="AX31" s="42"/>
+      <c r="AY31" s="42"/>
+      <c r="AZ31" s="42"/>
+      <c r="BA31" s="42"/>
+      <c r="BB31" s="42"/>
+      <c r="BC31" s="10"/>
       <c r="BF31" s="4"/>
       <c r="BG31" s="4"/>
-    </row>
-    <row r="32" spans="8:59" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BH31" s="4"/>
+      <c r="BI31" s="4"/>
+      <c r="BJ31" s="4"/>
+      <c r="BK31" s="4"/>
+    </row>
+    <row r="32" spans="8:63" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="7"/>
@@ -3622,10 +3737,10 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
@@ -3658,14 +3773,18 @@
       <c r="AW32" s="10"/>
       <c r="AX32" s="10"/>
       <c r="AY32" s="10"/>
-      <c r="BB32" s="4"/>
-      <c r="BC32" s="4"/>
-      <c r="BD32" s="4"/>
-      <c r="BE32" s="4"/>
+      <c r="AZ32" s="10"/>
+      <c r="BA32" s="10"/>
+      <c r="BB32" s="10"/>
+      <c r="BC32" s="10"/>
       <c r="BF32" s="4"/>
       <c r="BG32" s="4"/>
-    </row>
-    <row r="33" spans="8:62" x14ac:dyDescent="0.2">
+      <c r="BH32" s="4"/>
+      <c r="BI32" s="4"/>
+      <c r="BJ32" s="4"/>
+      <c r="BK32" s="4"/>
+    </row>
+    <row r="33" spans="8:66" x14ac:dyDescent="0.2">
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="7"/>
@@ -3674,50 +3793,54 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="9" t="s">
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
       <c r="X33" s="10"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
       <c r="AC33" s="9"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="10" t="s">
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="82"/>
+      <c r="AJ33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="12"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
-      <c r="AP33" s="13"/>
-      <c r="AQ33" s="14" t="s">
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9"/>
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="12"/>
+      <c r="AU33" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AR33" s="14"/>
-      <c r="AS33" s="10"/>
-      <c r="AT33" s="10"/>
-      <c r="AU33" s="12"/>
-      <c r="AV33" s="9"/>
+      <c r="AV33" s="13"/>
       <c r="AW33" s="10"/>
       <c r="AX33" s="10"/>
-      <c r="AY33" s="10"/>
-    </row>
-    <row r="34" spans="8:62" x14ac:dyDescent="0.2">
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="10"/>
+      <c r="BB33" s="10"/>
+      <c r="BC33" s="10"/>
+    </row>
+    <row r="34" spans="8:66" x14ac:dyDescent="0.2">
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="7"/>
@@ -3726,50 +3849,54 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="9" t="s">
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
       <c r="X34" s="10"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
       <c r="AC34" s="9"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="10" t="s">
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="12"/>
-      <c r="AK34" s="9"/>
-      <c r="AL34" s="9"/>
-      <c r="AM34" s="9"/>
-      <c r="AN34" s="10"/>
-      <c r="AO34" s="10"/>
-      <c r="AP34" s="16"/>
-      <c r="AQ34" s="14" t="s">
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="9"/>
+      <c r="AP34" s="9"/>
+      <c r="AQ34" s="9"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="15"/>
+      <c r="AU34" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="10"/>
-      <c r="AT34" s="10"/>
-      <c r="AU34" s="12"/>
-      <c r="AV34" s="9"/>
+      <c r="AV34" s="13"/>
       <c r="AW34" s="10"/>
       <c r="AX34" s="10"/>
-      <c r="AY34" s="10"/>
-    </row>
-    <row r="35" spans="8:62" x14ac:dyDescent="0.2">
+      <c r="AY34" s="11"/>
+      <c r="AZ34" s="9"/>
+      <c r="BA34" s="10"/>
+      <c r="BB34" s="10"/>
+      <c r="BC34" s="10"/>
+    </row>
+    <row r="35" spans="8:66" x14ac:dyDescent="0.2">
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="7"/>
@@ -3778,48 +3905,52 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="9" t="s">
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="16"/>
       <c r="AC35" s="9"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="10"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
       <c r="AH35" s="10"/>
       <c r="AI35" s="10"/>
-      <c r="AJ35" s="12"/>
-      <c r="AK35" s="9"/>
-      <c r="AL35" s="9"/>
-      <c r="AM35" s="9"/>
-      <c r="AN35" s="10"/>
-      <c r="AO35" s="10"/>
-      <c r="AP35" s="18"/>
-      <c r="AQ35" s="14" t="s">
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="9"/>
+      <c r="AQ35" s="9"/>
+      <c r="AR35" s="10"/>
+      <c r="AS35" s="10"/>
+      <c r="AT35" s="17"/>
+      <c r="AU35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AR35" s="14"/>
-      <c r="AS35" s="10"/>
-      <c r="AT35" s="10"/>
-      <c r="AU35" s="12"/>
-      <c r="AV35" s="9"/>
+      <c r="AV35" s="13"/>
       <c r="AW35" s="10"/>
       <c r="AX35" s="10"/>
-      <c r="AY35" s="10"/>
-    </row>
-    <row r="36" spans="8:62" x14ac:dyDescent="0.2">
+      <c r="AY35" s="11"/>
+      <c r="AZ35" s="9"/>
+      <c r="BA35" s="10"/>
+      <c r="BB35" s="10"/>
+      <c r="BC35" s="10"/>
+    </row>
+    <row r="36" spans="8:66" x14ac:dyDescent="0.2">
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="7"/>
@@ -3828,26 +3959,26 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="10"/>
+      <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="10"/>
+      <c r="S36" s="9"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
-      <c r="AE36" s="10"/>
+      <c r="AE36" s="9"/>
       <c r="AF36" s="9"/>
       <c r="AG36" s="9"/>
       <c r="AH36" s="9"/>
-      <c r="AI36" s="9"/>
+      <c r="AI36" s="10"/>
       <c r="AJ36" s="9"/>
       <c r="AK36" s="9"/>
       <c r="AL36" s="9"/>
@@ -3858,16 +3989,20 @@
       <c r="AQ36" s="9"/>
       <c r="AR36" s="9"/>
       <c r="AS36" s="9"/>
-      <c r="AT36" s="10"/>
-      <c r="AU36" s="10"/>
-      <c r="AV36" s="10"/>
+      <c r="AT36" s="9"/>
+      <c r="AU36" s="9"/>
+      <c r="AV36" s="9"/>
       <c r="AW36" s="9"/>
-      <c r="AX36" s="9"/>
+      <c r="AX36" s="10"/>
       <c r="AY36" s="10"/>
       <c r="AZ36" s="10"/>
-      <c r="BA36" s="10"/>
-    </row>
-    <row r="37" spans="8:62" x14ac:dyDescent="0.2">
+      <c r="BA36" s="9"/>
+      <c r="BB36" s="9"/>
+      <c r="BC36" s="10"/>
+      <c r="BD36" s="10"/>
+      <c r="BE36" s="10"/>
+    </row>
+    <row r="37" spans="8:66" x14ac:dyDescent="0.2">
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="7"/>
@@ -3878,26 +4013,26 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="10"/>
+      <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="10"/>
+      <c r="S37" s="9"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
-      <c r="AE37" s="10"/>
+      <c r="AE37" s="9"/>
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
+      <c r="AI37" s="10"/>
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
       <c r="AL37" s="9"/>
@@ -3908,18 +4043,22 @@
       <c r="AQ37" s="9"/>
       <c r="AR37" s="9"/>
       <c r="AS37" s="9"/>
-      <c r="AT37" s="10"/>
-      <c r="AU37" s="10"/>
-      <c r="AV37" s="10"/>
+      <c r="AT37" s="9"/>
+      <c r="AU37" s="9"/>
+      <c r="AV37" s="9"/>
       <c r="AW37" s="9"/>
-      <c r="AX37" s="9"/>
+      <c r="AX37" s="10"/>
       <c r="AY37" s="10"/>
-      <c r="AZ37" s="10" t="s">
+      <c r="AZ37" s="10"/>
+      <c r="BA37" s="9"/>
+      <c r="BB37" s="9"/>
+      <c r="BC37" s="10"/>
+      <c r="BD37" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="BA37" s="10"/>
-    </row>
-    <row r="38" spans="8:62" x14ac:dyDescent="0.2">
+      <c r="BE37" s="10"/>
+    </row>
+    <row r="38" spans="8:66" x14ac:dyDescent="0.2">
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="7"/>
@@ -3928,26 +4067,26 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
-      <c r="P38" s="10"/>
+      <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="10"/>
+      <c r="S38" s="9"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
       <c r="W38" s="10"/>
       <c r="X38" s="10"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
-      <c r="AE38" s="10"/>
+      <c r="AE38" s="9"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="9"/>
       <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
+      <c r="AI38" s="10"/>
       <c r="AJ38" s="9"/>
       <c r="AK38" s="9"/>
       <c r="AL38" s="9"/>
@@ -3958,16 +4097,20 @@
       <c r="AQ38" s="9"/>
       <c r="AR38" s="9"/>
       <c r="AS38" s="9"/>
-      <c r="AT38" s="10"/>
-      <c r="AU38" s="10"/>
-      <c r="AV38" s="10"/>
+      <c r="AT38" s="9"/>
+      <c r="AU38" s="9"/>
+      <c r="AV38" s="9"/>
       <c r="AW38" s="9"/>
-      <c r="AX38" s="9"/>
+      <c r="AX38" s="10"/>
       <c r="AY38" s="10"/>
       <c r="AZ38" s="10"/>
-      <c r="BA38" s="10"/>
-    </row>
-    <row r="39" spans="8:62" x14ac:dyDescent="0.2">
+      <c r="BA38" s="9"/>
+      <c r="BB38" s="9"/>
+      <c r="BC38" s="10"/>
+      <c r="BD38" s="10"/>
+      <c r="BE38" s="10"/>
+    </row>
+    <row r="39" spans="8:66" x14ac:dyDescent="0.2">
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="7"/>
@@ -3976,26 +4119,26 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="10"/>
+      <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
-      <c r="S39" s="10"/>
+      <c r="S39" s="9"/>
       <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
       <c r="W39" s="10"/>
       <c r="X39" s="10"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
-      <c r="AE39" s="10"/>
+      <c r="AE39" s="9"/>
       <c r="AF39" s="9"/>
       <c r="AG39" s="9"/>
       <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
+      <c r="AI39" s="10"/>
       <c r="AJ39" s="9"/>
       <c r="AK39" s="9"/>
       <c r="AL39" s="9"/>
@@ -4006,16 +4149,20 @@
       <c r="AQ39" s="9"/>
       <c r="AR39" s="9"/>
       <c r="AS39" s="9"/>
-      <c r="AT39" s="10"/>
-      <c r="AU39" s="10"/>
-      <c r="AV39" s="10"/>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="9"/>
+      <c r="AV39" s="9"/>
       <c r="AW39" s="9"/>
-      <c r="AX39" s="9"/>
+      <c r="AX39" s="10"/>
       <c r="AY39" s="10"/>
       <c r="AZ39" s="10"/>
-      <c r="BA39" s="10"/>
-    </row>
-    <row r="40" spans="8:62" x14ac:dyDescent="0.2">
+      <c r="BA39" s="9"/>
+      <c r="BB39" s="9"/>
+      <c r="BC39" s="10"/>
+      <c r="BD39" s="10"/>
+      <c r="BE39" s="10"/>
+    </row>
+    <row r="40" spans="8:66" x14ac:dyDescent="0.2">
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="7"/>
@@ -4024,26 +4171,26 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
-      <c r="P40" s="10"/>
+      <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="10"/>
+      <c r="S40" s="9"/>
       <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
       <c r="W40" s="10"/>
       <c r="X40" s="10"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
-      <c r="AE40" s="10"/>
+      <c r="AE40" s="9"/>
       <c r="AF40" s="9"/>
       <c r="AG40" s="9"/>
       <c r="AH40" s="9"/>
-      <c r="AI40" s="9"/>
+      <c r="AI40" s="10"/>
       <c r="AJ40" s="9"/>
       <c r="AK40" s="9"/>
       <c r="AL40" s="9"/>
@@ -4054,16 +4201,20 @@
       <c r="AQ40" s="9"/>
       <c r="AR40" s="9"/>
       <c r="AS40" s="9"/>
-      <c r="AT40" s="10"/>
-      <c r="AU40" s="10"/>
-      <c r="AV40" s="10"/>
+      <c r="AT40" s="9"/>
+      <c r="AU40" s="9"/>
+      <c r="AV40" s="9"/>
       <c r="AW40" s="9"/>
-      <c r="AX40" s="9"/>
+      <c r="AX40" s="10"/>
       <c r="AY40" s="10"/>
       <c r="AZ40" s="10"/>
-      <c r="BA40" s="10"/>
-    </row>
-    <row r="41" spans="8:62" x14ac:dyDescent="0.2">
+      <c r="BA40" s="9"/>
+      <c r="BB40" s="9"/>
+      <c r="BC40" s="10"/>
+      <c r="BD40" s="10"/>
+      <c r="BE40" s="10"/>
+    </row>
+    <row r="41" spans="8:66" x14ac:dyDescent="0.2">
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="7"/>
@@ -4072,26 +4223,26 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
-      <c r="P41" s="10"/>
+      <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="10"/>
+      <c r="S41" s="9"/>
       <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
-      <c r="AE41" s="10"/>
+      <c r="AE41" s="9"/>
       <c r="AF41" s="9"/>
       <c r="AG41" s="9"/>
       <c r="AH41" s="9"/>
-      <c r="AI41" s="9"/>
+      <c r="AI41" s="10"/>
       <c r="AJ41" s="9"/>
       <c r="AK41" s="9"/>
       <c r="AL41" s="9"/>
@@ -4102,16 +4253,20 @@
       <c r="AQ41" s="9"/>
       <c r="AR41" s="9"/>
       <c r="AS41" s="9"/>
-      <c r="AT41" s="10"/>
-      <c r="AU41" s="10"/>
-      <c r="AV41" s="10"/>
+      <c r="AT41" s="9"/>
+      <c r="AU41" s="9"/>
+      <c r="AV41" s="9"/>
       <c r="AW41" s="9"/>
-      <c r="AX41" s="9"/>
+      <c r="AX41" s="10"/>
       <c r="AY41" s="10"/>
       <c r="AZ41" s="10"/>
-      <c r="BA41" s="10"/>
-    </row>
-    <row r="42" spans="8:62" x14ac:dyDescent="0.2">
+      <c r="BA41" s="9"/>
+      <c r="BB41" s="9"/>
+      <c r="BC41" s="10"/>
+      <c r="BD41" s="10"/>
+      <c r="BE41" s="10"/>
+    </row>
+    <row r="42" spans="8:66" x14ac:dyDescent="0.2">
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="7"/>
@@ -4120,26 +4275,26 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="10"/>
+      <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="10"/>
+      <c r="S42" s="9"/>
       <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
       <c r="W42" s="10"/>
       <c r="X42" s="10"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
-      <c r="AE42" s="10"/>
+      <c r="AE42" s="9"/>
       <c r="AF42" s="9"/>
       <c r="AG42" s="9"/>
       <c r="AH42" s="9"/>
-      <c r="AI42" s="9"/>
+      <c r="AI42" s="10"/>
       <c r="AJ42" s="9"/>
       <c r="AK42" s="9"/>
       <c r="AL42" s="9"/>
@@ -4150,16 +4305,20 @@
       <c r="AQ42" s="9"/>
       <c r="AR42" s="9"/>
       <c r="AS42" s="9"/>
-      <c r="AT42" s="10"/>
-      <c r="AU42" s="10"/>
-      <c r="AV42" s="10"/>
+      <c r="AT42" s="9"/>
+      <c r="AU42" s="9"/>
+      <c r="AV42" s="9"/>
       <c r="AW42" s="9"/>
-      <c r="AX42" s="9"/>
+      <c r="AX42" s="10"/>
       <c r="AY42" s="10"/>
       <c r="AZ42" s="10"/>
-      <c r="BA42" s="10"/>
-    </row>
-    <row r="43" spans="8:62" x14ac:dyDescent="0.2">
+      <c r="BA42" s="9"/>
+      <c r="BB42" s="9"/>
+      <c r="BC42" s="10"/>
+      <c r="BD42" s="10"/>
+      <c r="BE42" s="10"/>
+    </row>
+    <row r="43" spans="8:66" x14ac:dyDescent="0.2">
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="7"/>
@@ -4168,26 +4327,26 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
-      <c r="P43" s="10"/>
+      <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="10"/>
+      <c r="S43" s="9"/>
       <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
       <c r="W43" s="10"/>
       <c r="X43" s="10"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
       <c r="AC43" s="9"/>
       <c r="AD43" s="9"/>
-      <c r="AE43" s="10"/>
+      <c r="AE43" s="9"/>
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
       <c r="AH43" s="9"/>
-      <c r="AI43" s="9"/>
+      <c r="AI43" s="10"/>
       <c r="AJ43" s="9"/>
       <c r="AK43" s="9"/>
       <c r="AL43" s="9"/>
@@ -4198,16 +4357,20 @@
       <c r="AQ43" s="9"/>
       <c r="AR43" s="9"/>
       <c r="AS43" s="9"/>
-      <c r="AT43" s="10"/>
-      <c r="AU43" s="10"/>
-      <c r="AV43" s="10"/>
+      <c r="AT43" s="9"/>
+      <c r="AU43" s="9"/>
+      <c r="AV43" s="9"/>
       <c r="AW43" s="9"/>
-      <c r="AX43" s="9"/>
+      <c r="AX43" s="10"/>
       <c r="AY43" s="10"/>
       <c r="AZ43" s="10"/>
-      <c r="BA43" s="10"/>
-    </row>
-    <row r="44" spans="8:62" x14ac:dyDescent="0.2">
+      <c r="BA43" s="9"/>
+      <c r="BB43" s="9"/>
+      <c r="BC43" s="10"/>
+      <c r="BD43" s="10"/>
+      <c r="BE43" s="10"/>
+    </row>
+    <row r="44" spans="8:66" x14ac:dyDescent="0.2">
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="7"/>
@@ -4218,10 +4381,10 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
@@ -4254,12 +4417,16 @@
       <c r="AW44" s="5"/>
       <c r="AX44" s="5"/>
       <c r="AY44" s="5"/>
-      <c r="AZ44" s="5" t="s">
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BA44" s="6"/>
-    </row>
-    <row r="45" spans="8:62" x14ac:dyDescent="0.2">
+      <c r="BE44" s="6"/>
+    </row>
+    <row r="45" spans="8:66" x14ac:dyDescent="0.2">
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="7"/>
@@ -4268,111 +4435,119 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="66" t="s">
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="S45" s="66"/>
-      <c r="T45" s="66"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="66"/>
-      <c r="W45" s="66"/>
-      <c r="X45" s="66"/>
-      <c r="Y45" s="66"/>
-      <c r="Z45" s="66"/>
-      <c r="AA45" s="66"/>
-      <c r="AB45" s="66"/>
-      <c r="AC45" s="66"/>
-      <c r="AD45" s="66"/>
-      <c r="AE45" s="66"/>
-      <c r="AF45" s="66"/>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="66"/>
-      <c r="AI45" s="66"/>
-      <c r="AJ45" s="66"/>
-      <c r="AK45" s="66"/>
-      <c r="AL45" s="66"/>
-      <c r="AM45" s="66"/>
-      <c r="AN45" s="66"/>
-      <c r="AO45" s="66"/>
-      <c r="AP45" s="66"/>
-      <c r="AQ45" s="66"/>
-      <c r="AR45" s="66"/>
-      <c r="AS45" s="66"/>
-      <c r="AT45" s="66"/>
-      <c r="AU45" s="66"/>
-      <c r="AV45" s="5"/>
-      <c r="AW45" s="5"/>
-      <c r="AX45" s="5"/>
-      <c r="AY45" s="5"/>
-    </row>
-    <row r="46" spans="8:62" s="83" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="65"/>
-      <c r="Q46" s="65"/>
-      <c r="R46" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="S46" s="67"/>
-      <c r="T46" s="67"/>
-      <c r="U46" s="67"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="67"/>
-      <c r="X46" s="67"/>
-      <c r="Y46" s="67"/>
-      <c r="Z46" s="60"/>
-      <c r="AA46" s="65"/>
-      <c r="AB46" s="66" t="s">
+      <c r="W45" s="74"/>
+      <c r="X45" s="74"/>
+      <c r="Y45" s="74"/>
+      <c r="Z45" s="74"/>
+      <c r="AA45" s="74"/>
+      <c r="AB45" s="74"/>
+      <c r="AC45" s="74"/>
+      <c r="AD45" s="74"/>
+      <c r="AE45" s="74"/>
+      <c r="AF45" s="74"/>
+      <c r="AG45" s="74"/>
+      <c r="AH45" s="74"/>
+      <c r="AI45" s="74"/>
+      <c r="AJ45" s="74"/>
+      <c r="AK45" s="74"/>
+      <c r="AL45" s="74"/>
+      <c r="AM45" s="74"/>
+      <c r="AN45" s="74"/>
+      <c r="AO45" s="74"/>
+      <c r="AP45" s="74"/>
+      <c r="AQ45" s="74"/>
+      <c r="AR45" s="74"/>
+      <c r="AS45" s="74"/>
+      <c r="AT45" s="74"/>
+      <c r="AU45" s="74"/>
+      <c r="AV45" s="74"/>
+      <c r="AW45" s="74"/>
+      <c r="AX45" s="74"/>
+      <c r="AY45" s="74"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+    </row>
+    <row r="46" spans="8:66" s="72" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="69"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="69"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
+      <c r="V46" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="W46" s="75"/>
+      <c r="X46" s="75"/>
+      <c r="Y46" s="75"/>
+      <c r="Z46" s="75"/>
+      <c r="AA46" s="75"/>
+      <c r="AB46" s="75"/>
+      <c r="AC46" s="75"/>
+      <c r="AD46" s="54"/>
+      <c r="AE46" s="57"/>
+      <c r="AF46" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="AC46" s="66"/>
-      <c r="AD46" s="66"/>
-      <c r="AE46" s="66"/>
-      <c r="AF46" s="66"/>
-      <c r="AG46" s="66"/>
-      <c r="AH46" s="68"/>
-      <c r="AI46" s="57"/>
-      <c r="AJ46" s="66" t="s">
+      <c r="AG46" s="74"/>
+      <c r="AH46" s="74"/>
+      <c r="AI46" s="74"/>
+      <c r="AJ46" s="74"/>
+      <c r="AK46" s="74"/>
+      <c r="AL46" s="59"/>
+      <c r="AM46" s="51"/>
+      <c r="AN46" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="AK46" s="66"/>
-      <c r="AL46" s="66"/>
-      <c r="AM46" s="66"/>
-      <c r="AN46" s="66"/>
-      <c r="AO46" s="66"/>
-      <c r="AP46" s="68"/>
-      <c r="AQ46" s="57"/>
-      <c r="AR46" s="66" t="s">
+      <c r="AO46" s="74"/>
+      <c r="AP46" s="74"/>
+      <c r="AQ46" s="74"/>
+      <c r="AR46" s="74"/>
+      <c r="AS46" s="74"/>
+      <c r="AT46" s="59"/>
+      <c r="AU46" s="51"/>
+      <c r="AV46" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="AS46" s="66"/>
-      <c r="AT46" s="66"/>
-      <c r="AU46" s="66"/>
-      <c r="AV46" s="82"/>
-      <c r="AW46" s="82"/>
-      <c r="AX46" s="82"/>
-      <c r="AY46" s="82"/>
-      <c r="AZ46" s="82"/>
-      <c r="BA46" s="82"/>
-      <c r="BB46" s="82"/>
-      <c r="BC46" s="82"/>
-      <c r="BD46" s="82"/>
-      <c r="BE46" s="80"/>
-      <c r="BF46" s="80"/>
-      <c r="BG46" s="80"/>
-      <c r="BH46" s="80"/>
-      <c r="BI46" s="80"/>
-      <c r="BJ46" s="80"/>
-    </row>
-    <row r="47" spans="8:62" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW46" s="74"/>
+      <c r="AX46" s="74"/>
+      <c r="AY46" s="74"/>
+      <c r="AZ46" s="71"/>
+      <c r="BA46" s="71"/>
+      <c r="BB46" s="71"/>
+      <c r="BC46" s="71"/>
+      <c r="BD46" s="71"/>
+      <c r="BE46" s="71"/>
+      <c r="BF46" s="71"/>
+      <c r="BG46" s="71"/>
+      <c r="BH46" s="71"/>
+      <c r="BI46" s="69"/>
+      <c r="BJ46" s="69"/>
+      <c r="BK46" s="69"/>
+      <c r="BL46" s="69"/>
+      <c r="BM46" s="69"/>
+      <c r="BN46" s="69"/>
+    </row>
+    <row r="47" spans="8:66" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="7"/>
@@ -4381,50 +4556,54 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="9"/>
       <c r="X47" s="10"/>
       <c r="Y47" s="10"/>
       <c r="Z47" s="10"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="57"/>
-      <c r="AC47" s="57"/>
-      <c r="AD47" s="57"/>
-      <c r="AE47" s="57"/>
-      <c r="AF47" s="57"/>
-      <c r="AG47" s="57"/>
-      <c r="AH47" s="57"/>
-      <c r="AI47" s="57"/>
-      <c r="AJ47" s="57"/>
-      <c r="AK47" s="57"/>
-      <c r="AL47" s="57"/>
-      <c r="AM47" s="57"/>
-      <c r="AN47" s="57"/>
-      <c r="AO47" s="57"/>
-      <c r="AP47" s="57"/>
-      <c r="AQ47" s="57"/>
-      <c r="AR47" s="68"/>
-      <c r="AS47" s="68"/>
-      <c r="AT47" s="68"/>
-      <c r="AU47" s="68"/>
-      <c r="AV47" s="5"/>
-      <c r="AW47" s="5"/>
-      <c r="AX47" s="5"/>
-      <c r="AY47" s="5"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="51"/>
+      <c r="AG47" s="51"/>
+      <c r="AH47" s="51"/>
+      <c r="AI47" s="51"/>
+      <c r="AJ47" s="51"/>
+      <c r="AK47" s="51"/>
+      <c r="AL47" s="51"/>
+      <c r="AM47" s="51"/>
+      <c r="AN47" s="51"/>
+      <c r="AO47" s="51"/>
+      <c r="AP47" s="51"/>
+      <c r="AQ47" s="51"/>
+      <c r="AR47" s="51"/>
+      <c r="AS47" s="51"/>
+      <c r="AT47" s="51"/>
+      <c r="AU47" s="51"/>
+      <c r="AV47" s="59"/>
+      <c r="AW47" s="59"/>
+      <c r="AX47" s="59"/>
+      <c r="AY47" s="59"/>
+      <c r="AZ47" s="5"/>
+      <c r="BA47" s="5"/>
       <c r="BB47" s="5"/>
       <c r="BC47" s="5"/>
-      <c r="BD47" s="5"/>
-      <c r="BH47" s="4"/>
-      <c r="BI47" s="4"/>
-      <c r="BJ47" s="4"/>
-    </row>
-    <row r="48" spans="8:62" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF47" s="5"/>
+      <c r="BG47" s="5"/>
+      <c r="BH47" s="5"/>
+      <c r="BL47" s="4"/>
+      <c r="BM47" s="4"/>
+      <c r="BN47" s="4"/>
+    </row>
+    <row r="48" spans="8:66" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="7"/>
@@ -4433,60 +4612,64 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="66" t="s">
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="80"/>
+      <c r="W48" s="81"/>
+      <c r="X48" s="81"/>
+      <c r="Y48" s="81"/>
+      <c r="Z48" s="81"/>
+      <c r="AA48" s="81"/>
+      <c r="AB48" s="81"/>
+      <c r="AC48" s="81"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AC48" s="66"/>
-      <c r="AD48" s="66"/>
-      <c r="AE48" s="66" t="s">
+      <c r="AG48" s="74"/>
+      <c r="AH48" s="74"/>
+      <c r="AI48" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AF48" s="66"/>
-      <c r="AG48" s="66"/>
-      <c r="AH48" s="57"/>
-      <c r="AI48" s="57"/>
-      <c r="AJ48" s="66" t="s">
+      <c r="AJ48" s="74"/>
+      <c r="AK48" s="74"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AK48" s="66"/>
-      <c r="AL48" s="66"/>
-      <c r="AM48" s="66" t="s">
+      <c r="AO48" s="74"/>
+      <c r="AP48" s="74"/>
+      <c r="AQ48" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AN48" s="66"/>
-      <c r="AO48" s="66"/>
-      <c r="AP48" s="57"/>
-      <c r="AQ48" s="57"/>
-      <c r="AR48" s="66" t="s">
+      <c r="AR48" s="74"/>
+      <c r="AS48" s="74"/>
+      <c r="AT48" s="51"/>
+      <c r="AU48" s="51"/>
+      <c r="AV48" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AS48" s="66"/>
-      <c r="AT48" s="66"/>
-      <c r="AU48" s="66"/>
-      <c r="AV48" s="5"/>
-      <c r="AW48" s="5"/>
-      <c r="AX48" s="5"/>
-      <c r="AY48" s="5"/>
+      <c r="AW48" s="74"/>
+      <c r="AX48" s="74"/>
+      <c r="AY48" s="74"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
       <c r="BB48" s="5"/>
       <c r="BC48" s="5"/>
-      <c r="BD48" s="5"/>
-      <c r="BH48" s="4"/>
-      <c r="BI48" s="4"/>
-      <c r="BJ48" s="4"/>
-    </row>
-    <row r="49" spans="7:62" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF48" s="5"/>
+      <c r="BG48" s="5"/>
+      <c r="BH48" s="5"/>
+      <c r="BL48" s="4"/>
+      <c r="BM48" s="4"/>
+      <c r="BN48" s="4"/>
+    </row>
+    <row r="49" spans="7:66" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="7"/>
@@ -4495,50 +4678,54 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="9"/>
       <c r="X49" s="10"/>
       <c r="Y49" s="10"/>
       <c r="Z49" s="10"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="57"/>
-      <c r="AC49" s="57"/>
-      <c r="AD49" s="57"/>
-      <c r="AE49" s="57"/>
-      <c r="AF49" s="57"/>
-      <c r="AG49" s="57"/>
-      <c r="AH49" s="57"/>
-      <c r="AI49" s="57"/>
-      <c r="AJ49" s="57"/>
-      <c r="AK49" s="57"/>
-      <c r="AL49" s="57"/>
-      <c r="AM49" s="57"/>
-      <c r="AN49" s="57"/>
-      <c r="AO49" s="57"/>
-      <c r="AP49" s="57"/>
-      <c r="AQ49" s="57"/>
-      <c r="AR49" s="68"/>
-      <c r="AS49" s="68"/>
-      <c r="AT49" s="68"/>
-      <c r="AU49" s="68"/>
-      <c r="AV49" s="5"/>
-      <c r="AW49" s="5"/>
-      <c r="AX49" s="5"/>
-      <c r="AY49" s="5"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="51"/>
+      <c r="AG49" s="51"/>
+      <c r="AH49" s="51"/>
+      <c r="AI49" s="51"/>
+      <c r="AJ49" s="51"/>
+      <c r="AK49" s="51"/>
+      <c r="AL49" s="51"/>
+      <c r="AM49" s="51"/>
+      <c r="AN49" s="51"/>
+      <c r="AO49" s="51"/>
+      <c r="AP49" s="51"/>
+      <c r="AQ49" s="51"/>
+      <c r="AR49" s="51"/>
+      <c r="AS49" s="51"/>
+      <c r="AT49" s="51"/>
+      <c r="AU49" s="51"/>
+      <c r="AV49" s="59"/>
+      <c r="AW49" s="59"/>
+      <c r="AX49" s="59"/>
+      <c r="AY49" s="59"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
       <c r="BB49" s="5"/>
       <c r="BC49" s="5"/>
-      <c r="BD49" s="5"/>
-      <c r="BH49" s="4"/>
-      <c r="BI49" s="4"/>
-      <c r="BJ49" s="4"/>
-    </row>
-    <row r="50" spans="7:62" x14ac:dyDescent="0.2">
+      <c r="BF49" s="5"/>
+      <c r="BG49" s="5"/>
+      <c r="BH49" s="5"/>
+      <c r="BL49" s="4"/>
+      <c r="BM49" s="4"/>
+      <c r="BN49" s="4"/>
+    </row>
+    <row r="50" spans="7:66" x14ac:dyDescent="0.2">
       <c r="G50" s="5"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -4548,65 +4735,69 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="75" t="s">
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
       <c r="X50" s="10"/>
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
-      <c r="AB50" s="61">
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="77">
         <v>5</v>
       </c>
-      <c r="AC50" s="61"/>
-      <c r="AD50" s="61"/>
-      <c r="AE50" s="62">
-        <f>AB50/155</f>
+      <c r="AG50" s="77"/>
+      <c r="AH50" s="77"/>
+      <c r="AI50" s="78">
+        <f t="shared" ref="AI50:AI57" si="3">AF50/155</f>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="AF50" s="62"/>
-      <c r="AG50" s="62"/>
-      <c r="AH50" s="63"/>
-      <c r="AI50" s="63"/>
-      <c r="AJ50" s="61">
+      <c r="AJ50" s="78"/>
+      <c r="AK50" s="78"/>
+      <c r="AL50" s="55"/>
+      <c r="AM50" s="55"/>
+      <c r="AN50" s="77">
         <v>2</v>
       </c>
-      <c r="AK50" s="61"/>
-      <c r="AL50" s="61"/>
-      <c r="AM50" s="62">
-        <f>AJ50/172</f>
+      <c r="AO50" s="77"/>
+      <c r="AP50" s="77"/>
+      <c r="AQ50" s="78">
+        <f>AN50/172</f>
         <v>1.1627906976744186E-2</v>
       </c>
-      <c r="AN50" s="62"/>
-      <c r="AO50" s="62"/>
-      <c r="AP50" s="63"/>
-      <c r="AQ50" s="63"/>
-      <c r="AR50" s="69">
-        <f>AE50-AM50</f>
+      <c r="AR50" s="78"/>
+      <c r="AS50" s="78"/>
+      <c r="AT50" s="55"/>
+      <c r="AU50" s="55"/>
+      <c r="AV50" s="76">
+        <f t="shared" ref="AV50:AV57" si="4">AI50-AQ50</f>
         <v>2.0630157539384845E-2</v>
       </c>
-      <c r="AS50" s="69"/>
-      <c r="AT50" s="69"/>
-      <c r="AU50" s="69"/>
-      <c r="AV50" s="5"/>
-      <c r="AW50" s="5"/>
-      <c r="AX50" s="5"/>
-      <c r="AY50" s="5"/>
+      <c r="AW50" s="76"/>
+      <c r="AX50" s="76"/>
+      <c r="AY50" s="76"/>
+      <c r="AZ50" s="5"/>
+      <c r="BA50" s="5"/>
       <c r="BB50" s="5"/>
       <c r="BC50" s="5"/>
-      <c r="BD50" s="5"/>
-      <c r="BH50" s="4"/>
-      <c r="BI50" s="4"/>
-      <c r="BJ50" s="4"/>
-    </row>
-    <row r="51" spans="7:62" x14ac:dyDescent="0.2">
+      <c r="BF50" s="5"/>
+      <c r="BG50" s="5"/>
+      <c r="BH50" s="5"/>
+      <c r="BL50" s="4"/>
+      <c r="BM50" s="4"/>
+      <c r="BN50" s="4"/>
+    </row>
+    <row r="51" spans="7:66" x14ac:dyDescent="0.2">
       <c r="G51" s="5"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -4616,65 +4807,69 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="72" t="s">
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
-      <c r="AB51" s="61">
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="77">
         <v>57</v>
       </c>
-      <c r="AC51" s="61"/>
-      <c r="AD51" s="61"/>
-      <c r="AE51" s="62">
-        <f>AB51/155</f>
+      <c r="AG51" s="77"/>
+      <c r="AH51" s="77"/>
+      <c r="AI51" s="78">
+        <f t="shared" si="3"/>
         <v>0.36774193548387096</v>
       </c>
-      <c r="AF51" s="62"/>
-      <c r="AG51" s="62"/>
-      <c r="AH51" s="63"/>
-      <c r="AI51" s="63"/>
-      <c r="AJ51" s="61">
+      <c r="AJ51" s="78"/>
+      <c r="AK51" s="78"/>
+      <c r="AL51" s="55"/>
+      <c r="AM51" s="55"/>
+      <c r="AN51" s="77">
         <v>71</v>
       </c>
-      <c r="AK51" s="61"/>
-      <c r="AL51" s="61"/>
-      <c r="AM51" s="62">
-        <f t="shared" ref="AM51:AM57" si="3">AJ51/172</f>
+      <c r="AO51" s="77"/>
+      <c r="AP51" s="77"/>
+      <c r="AQ51" s="78">
+        <f t="shared" ref="AQ51:AQ57" si="5">AN51/172</f>
         <v>0.41279069767441862</v>
       </c>
-      <c r="AN51" s="62"/>
-      <c r="AO51" s="62"/>
-      <c r="AP51" s="63"/>
-      <c r="AQ51" s="63"/>
-      <c r="AR51" s="69">
-        <f>AE51-AM51</f>
+      <c r="AR51" s="78"/>
+      <c r="AS51" s="78"/>
+      <c r="AT51" s="55"/>
+      <c r="AU51" s="55"/>
+      <c r="AV51" s="76">
+        <f t="shared" si="4"/>
         <v>-4.5048762190547653E-2</v>
       </c>
-      <c r="AS51" s="69"/>
-      <c r="AT51" s="69"/>
-      <c r="AU51" s="69"/>
-      <c r="AV51" s="5"/>
-      <c r="AW51" s="5"/>
-      <c r="AX51" s="5"/>
-      <c r="AY51" s="5"/>
+      <c r="AW51" s="76"/>
+      <c r="AX51" s="76"/>
+      <c r="AY51" s="76"/>
+      <c r="AZ51" s="5"/>
+      <c r="BA51" s="5"/>
       <c r="BB51" s="5"/>
       <c r="BC51" s="5"/>
-      <c r="BD51" s="5"/>
-      <c r="BH51" s="4"/>
-      <c r="BI51" s="4"/>
-      <c r="BJ51" s="4"/>
-    </row>
-    <row r="52" spans="7:62" x14ac:dyDescent="0.2">
+      <c r="BF51" s="5"/>
+      <c r="BG51" s="5"/>
+      <c r="BH51" s="5"/>
+      <c r="BL51" s="4"/>
+      <c r="BM51" s="4"/>
+      <c r="BN51" s="4"/>
+    </row>
+    <row r="52" spans="7:66" x14ac:dyDescent="0.2">
       <c r="G52" s="5"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -4684,65 +4879,69 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="72" t="s">
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
       <c r="X52" s="10"/>
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
       <c r="AA52" s="10"/>
-      <c r="AB52" s="61">
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="77">
         <v>3</v>
       </c>
-      <c r="AC52" s="61"/>
-      <c r="AD52" s="61"/>
-      <c r="AE52" s="62">
-        <f>AB52/155</f>
+      <c r="AG52" s="77"/>
+      <c r="AH52" s="77"/>
+      <c r="AI52" s="78">
+        <f t="shared" si="3"/>
         <v>1.935483870967742E-2</v>
       </c>
-      <c r="AF52" s="62"/>
-      <c r="AG52" s="62"/>
-      <c r="AH52" s="63"/>
-      <c r="AI52" s="63"/>
-      <c r="AJ52" s="61">
+      <c r="AJ52" s="78"/>
+      <c r="AK52" s="78"/>
+      <c r="AL52" s="55"/>
+      <c r="AM52" s="55"/>
+      <c r="AN52" s="77">
         <v>2</v>
       </c>
-      <c r="AK52" s="61"/>
-      <c r="AL52" s="61"/>
-      <c r="AM52" s="62">
-        <f t="shared" si="3"/>
+      <c r="AO52" s="77"/>
+      <c r="AP52" s="77"/>
+      <c r="AQ52" s="78">
+        <f t="shared" si="5"/>
         <v>1.1627906976744186E-2</v>
       </c>
-      <c r="AN52" s="62"/>
-      <c r="AO52" s="62"/>
-      <c r="AP52" s="63"/>
-      <c r="AQ52" s="63"/>
-      <c r="AR52" s="69">
-        <f>AE52-AM52</f>
+      <c r="AR52" s="78"/>
+      <c r="AS52" s="78"/>
+      <c r="AT52" s="55"/>
+      <c r="AU52" s="55"/>
+      <c r="AV52" s="76">
+        <f t="shared" si="4"/>
         <v>7.7269317329332343E-3</v>
       </c>
-      <c r="AS52" s="69"/>
-      <c r="AT52" s="69"/>
-      <c r="AU52" s="69"/>
-      <c r="AV52" s="5"/>
-      <c r="AW52" s="5"/>
-      <c r="AX52" s="5"/>
-      <c r="AY52" s="5"/>
+      <c r="AW52" s="76"/>
+      <c r="AX52" s="76"/>
+      <c r="AY52" s="76"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="5"/>
       <c r="BB52" s="5"/>
       <c r="BC52" s="5"/>
-      <c r="BD52" s="5"/>
-      <c r="BH52" s="4"/>
-      <c r="BI52" s="4"/>
-      <c r="BJ52" s="4"/>
-    </row>
-    <row r="53" spans="7:62" x14ac:dyDescent="0.2">
+      <c r="BF52" s="5"/>
+      <c r="BG52" s="5"/>
+      <c r="BH52" s="5"/>
+      <c r="BL52" s="4"/>
+      <c r="BM52" s="4"/>
+      <c r="BN52" s="4"/>
+    </row>
+    <row r="53" spans="7:66" x14ac:dyDescent="0.2">
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -4752,65 +4951,69 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="73" t="s">
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="82"/>
+      <c r="W53" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
       <c r="X53" s="10"/>
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
-      <c r="AB53" s="61">
-        <v>37</v>
-      </c>
-      <c r="AC53" s="61"/>
-      <c r="AD53" s="61"/>
-      <c r="AE53" s="62">
-        <f>AB53/155</f>
-        <v>0.23870967741935484</v>
-      </c>
-      <c r="AF53" s="62"/>
-      <c r="AG53" s="62"/>
-      <c r="AH53" s="63"/>
-      <c r="AI53" s="63"/>
-      <c r="AJ53" s="61">
-        <v>39</v>
-      </c>
-      <c r="AK53" s="61"/>
-      <c r="AL53" s="61"/>
-      <c r="AM53" s="62">
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="77">
+        <v>15</v>
+      </c>
+      <c r="AG53" s="77"/>
+      <c r="AH53" s="77"/>
+      <c r="AI53" s="78">
         <f t="shared" si="3"/>
-        <v>0.22674418604651161</v>
-      </c>
-      <c r="AN53" s="62"/>
-      <c r="AO53" s="62"/>
-      <c r="AP53" s="63"/>
-      <c r="AQ53" s="63"/>
-      <c r="AR53" s="69">
-        <f>AE53-AM53</f>
-        <v>1.1965491372843223E-2</v>
-      </c>
-      <c r="AS53" s="69"/>
-      <c r="AT53" s="69"/>
-      <c r="AU53" s="69"/>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="5"/>
-      <c r="AX53" s="5"/>
-      <c r="AY53" s="5"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="AJ53" s="78"/>
+      <c r="AK53" s="78"/>
+      <c r="AL53" s="55"/>
+      <c r="AM53" s="55"/>
+      <c r="AN53" s="77">
+        <v>20</v>
+      </c>
+      <c r="AO53" s="77"/>
+      <c r="AP53" s="77"/>
+      <c r="AQ53" s="78">
+        <f t="shared" si="5"/>
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="AR53" s="78"/>
+      <c r="AS53" s="78"/>
+      <c r="AT53" s="55"/>
+      <c r="AU53" s="55"/>
+      <c r="AV53" s="76">
+        <f t="shared" si="4"/>
+        <v>-1.9504876219054765E-2</v>
+      </c>
+      <c r="AW53" s="76"/>
+      <c r="AX53" s="76"/>
+      <c r="AY53" s="76"/>
+      <c r="AZ53" s="5"/>
+      <c r="BA53" s="5"/>
       <c r="BB53" s="5"/>
       <c r="BC53" s="5"/>
-      <c r="BD53" s="5"/>
-      <c r="BH53" s="4"/>
-      <c r="BI53" s="4"/>
-      <c r="BJ53" s="4"/>
-    </row>
-    <row r="54" spans="7:62" x14ac:dyDescent="0.2">
+      <c r="BF53" s="5"/>
+      <c r="BG53" s="5"/>
+      <c r="BH53" s="5"/>
+      <c r="BL53" s="4"/>
+      <c r="BM53" s="4"/>
+      <c r="BN53" s="4"/>
+    </row>
+    <row r="54" spans="7:66" x14ac:dyDescent="0.2">
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -4820,65 +5023,69 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="73" t="s">
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
       <c r="X54" s="10"/>
       <c r="Y54" s="10"/>
       <c r="Z54" s="10"/>
       <c r="AA54" s="10"/>
-      <c r="AB54" s="61">
-        <v>15</v>
-      </c>
-      <c r="AC54" s="61"/>
-      <c r="AD54" s="61"/>
-      <c r="AE54" s="62">
-        <f>AB54/155</f>
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="AF54" s="62"/>
-      <c r="AG54" s="62"/>
-      <c r="AH54" s="63"/>
-      <c r="AI54" s="63"/>
-      <c r="AJ54" s="61">
-        <v>20</v>
-      </c>
-      <c r="AK54" s="61"/>
-      <c r="AL54" s="61"/>
-      <c r="AM54" s="62">
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="77">
+        <v>37</v>
+      </c>
+      <c r="AG54" s="77"/>
+      <c r="AH54" s="77"/>
+      <c r="AI54" s="78">
         <f t="shared" si="3"/>
-        <v>0.11627906976744186</v>
-      </c>
-      <c r="AN54" s="62"/>
-      <c r="AO54" s="62"/>
-      <c r="AP54" s="63"/>
-      <c r="AQ54" s="63"/>
-      <c r="AR54" s="69">
-        <f>AE54-AM54</f>
-        <v>-1.9504876219054765E-2</v>
-      </c>
-      <c r="AS54" s="69"/>
-      <c r="AT54" s="69"/>
-      <c r="AU54" s="69"/>
-      <c r="AV54" s="5"/>
-      <c r="AW54" s="5"/>
-      <c r="AX54" s="5"/>
-      <c r="AY54" s="5"/>
+        <v>0.23870967741935484</v>
+      </c>
+      <c r="AJ54" s="78"/>
+      <c r="AK54" s="78"/>
+      <c r="AL54" s="55"/>
+      <c r="AM54" s="55"/>
+      <c r="AN54" s="77">
+        <v>39</v>
+      </c>
+      <c r="AO54" s="77"/>
+      <c r="AP54" s="77"/>
+      <c r="AQ54" s="78">
+        <f t="shared" si="5"/>
+        <v>0.22674418604651161</v>
+      </c>
+      <c r="AR54" s="78"/>
+      <c r="AS54" s="78"/>
+      <c r="AT54" s="55"/>
+      <c r="AU54" s="55"/>
+      <c r="AV54" s="76">
+        <f t="shared" si="4"/>
+        <v>1.1965491372843223E-2</v>
+      </c>
+      <c r="AW54" s="76"/>
+      <c r="AX54" s="76"/>
+      <c r="AY54" s="76"/>
+      <c r="AZ54" s="5"/>
+      <c r="BA54" s="5"/>
       <c r="BB54" s="5"/>
       <c r="BC54" s="5"/>
-      <c r="BD54" s="5"/>
-      <c r="BH54" s="4"/>
-      <c r="BI54" s="4"/>
-      <c r="BJ54" s="4"/>
-    </row>
-    <row r="55" spans="7:62" x14ac:dyDescent="0.2">
+      <c r="BF54" s="5"/>
+      <c r="BG54" s="5"/>
+      <c r="BH54" s="5"/>
+      <c r="BL54" s="4"/>
+      <c r="BM54" s="4"/>
+      <c r="BN54" s="4"/>
+    </row>
+    <row r="55" spans="7:66" x14ac:dyDescent="0.2">
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -4888,65 +5095,69 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="74" t="s">
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
       <c r="X55" s="10"/>
       <c r="Y55" s="10"/>
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
-      <c r="AB55" s="61">
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="77">
         <v>11</v>
       </c>
-      <c r="AC55" s="61"/>
-      <c r="AD55" s="61"/>
-      <c r="AE55" s="62">
-        <f>AB55/155</f>
+      <c r="AG55" s="77"/>
+      <c r="AH55" s="77"/>
+      <c r="AI55" s="78">
+        <f t="shared" si="3"/>
         <v>7.0967741935483872E-2</v>
       </c>
-      <c r="AF55" s="62"/>
-      <c r="AG55" s="62"/>
-      <c r="AH55" s="63"/>
-      <c r="AI55" s="63"/>
-      <c r="AJ55" s="61">
+      <c r="AJ55" s="78"/>
+      <c r="AK55" s="78"/>
+      <c r="AL55" s="55"/>
+      <c r="AM55" s="55"/>
+      <c r="AN55" s="77">
         <v>14</v>
       </c>
-      <c r="AK55" s="61"/>
-      <c r="AL55" s="61"/>
-      <c r="AM55" s="62">
-        <f t="shared" si="3"/>
+      <c r="AO55" s="77"/>
+      <c r="AP55" s="77"/>
+      <c r="AQ55" s="78">
+        <f t="shared" si="5"/>
         <v>8.1395348837209308E-2</v>
       </c>
-      <c r="AN55" s="62"/>
-      <c r="AO55" s="62"/>
-      <c r="AP55" s="63"/>
-      <c r="AQ55" s="63"/>
-      <c r="AR55" s="69">
-        <f>AE55-AM55</f>
+      <c r="AR55" s="78"/>
+      <c r="AS55" s="78"/>
+      <c r="AT55" s="55"/>
+      <c r="AU55" s="55"/>
+      <c r="AV55" s="76">
+        <f t="shared" si="4"/>
         <v>-1.0427606901725436E-2</v>
       </c>
-      <c r="AS55" s="69"/>
-      <c r="AT55" s="69"/>
-      <c r="AU55" s="69"/>
-      <c r="AV55" s="5"/>
-      <c r="AW55" s="5"/>
-      <c r="AX55" s="5"/>
-      <c r="AY55" s="5"/>
+      <c r="AW55" s="76"/>
+      <c r="AX55" s="76"/>
+      <c r="AY55" s="76"/>
+      <c r="AZ55" s="5"/>
+      <c r="BA55" s="5"/>
       <c r="BB55" s="5"/>
       <c r="BC55" s="5"/>
-      <c r="BD55" s="5"/>
-      <c r="BH55" s="4"/>
-      <c r="BI55" s="4"/>
-      <c r="BJ55" s="4"/>
-    </row>
-    <row r="56" spans="7:62" x14ac:dyDescent="0.2">
+      <c r="BF55" s="5"/>
+      <c r="BG55" s="5"/>
+      <c r="BH55" s="5"/>
+      <c r="BL55" s="4"/>
+      <c r="BM55" s="4"/>
+      <c r="BN55" s="4"/>
+    </row>
+    <row r="56" spans="7:66" x14ac:dyDescent="0.2">
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -4956,65 +5167,69 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="71" t="s">
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="T56" s="70"/>
-      <c r="U56" s="70"/>
-      <c r="V56" s="70"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="61">
+      <c r="X56" s="60"/>
+      <c r="Y56" s="60"/>
+      <c r="Z56" s="60"/>
+      <c r="AA56" s="60"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="77">
         <v>12</v>
       </c>
-      <c r="AC56" s="61"/>
-      <c r="AD56" s="61"/>
-      <c r="AE56" s="62">
-        <f>AB56/155</f>
+      <c r="AG56" s="77"/>
+      <c r="AH56" s="77"/>
+      <c r="AI56" s="78">
+        <f t="shared" si="3"/>
         <v>7.7419354838709681E-2</v>
       </c>
-      <c r="AF56" s="62"/>
-      <c r="AG56" s="62"/>
-      <c r="AH56" s="63"/>
-      <c r="AI56" s="63"/>
-      <c r="AJ56" s="61">
+      <c r="AJ56" s="78"/>
+      <c r="AK56" s="78"/>
+      <c r="AL56" s="55"/>
+      <c r="AM56" s="55"/>
+      <c r="AN56" s="77">
         <v>12</v>
       </c>
-      <c r="AK56" s="61"/>
-      <c r="AL56" s="61"/>
-      <c r="AM56" s="62">
-        <f t="shared" si="3"/>
+      <c r="AO56" s="77"/>
+      <c r="AP56" s="77"/>
+      <c r="AQ56" s="78">
+        <f t="shared" si="5"/>
         <v>6.9767441860465115E-2</v>
       </c>
-      <c r="AN56" s="62"/>
-      <c r="AO56" s="62"/>
-      <c r="AP56" s="63"/>
-      <c r="AQ56" s="63"/>
-      <c r="AR56" s="69">
-        <f>AE56-AM56</f>
+      <c r="AR56" s="78"/>
+      <c r="AS56" s="78"/>
+      <c r="AT56" s="55"/>
+      <c r="AU56" s="55"/>
+      <c r="AV56" s="76">
+        <f t="shared" si="4"/>
         <v>7.6519129782445655E-3</v>
       </c>
-      <c r="AS56" s="69"/>
-      <c r="AT56" s="69"/>
-      <c r="AU56" s="69"/>
-      <c r="AV56" s="5"/>
-      <c r="AW56" s="5"/>
-      <c r="AX56" s="5"/>
-      <c r="AY56" s="5"/>
+      <c r="AW56" s="76"/>
+      <c r="AX56" s="76"/>
+      <c r="AY56" s="76"/>
+      <c r="AZ56" s="5"/>
+      <c r="BA56" s="5"/>
       <c r="BB56" s="5"/>
       <c r="BC56" s="5"/>
-      <c r="BD56" s="5"/>
-      <c r="BH56" s="4"/>
-      <c r="BI56" s="4"/>
-      <c r="BJ56" s="4"/>
-    </row>
-    <row r="57" spans="7:62" x14ac:dyDescent="0.2">
+      <c r="BF56" s="5"/>
+      <c r="BG56" s="5"/>
+      <c r="BH56" s="5"/>
+      <c r="BL56" s="4"/>
+      <c r="BM56" s="4"/>
+      <c r="BN56" s="4"/>
+    </row>
+    <row r="57" spans="7:66" x14ac:dyDescent="0.2">
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -5024,118 +5239,125 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="74" t="s">
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
       <c r="X57" s="10"/>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
-      <c r="AB57" s="61">
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="77">
         <v>15</v>
       </c>
-      <c r="AC57" s="61"/>
-      <c r="AD57" s="61"/>
-      <c r="AE57" s="62">
-        <f>AB57/155</f>
+      <c r="AG57" s="77"/>
+      <c r="AH57" s="77"/>
+      <c r="AI57" s="78">
+        <f t="shared" si="3"/>
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="AF57" s="62"/>
-      <c r="AG57" s="62"/>
-      <c r="AH57" s="63"/>
-      <c r="AI57" s="63"/>
-      <c r="AJ57" s="61">
+      <c r="AJ57" s="78"/>
+      <c r="AK57" s="78"/>
+      <c r="AL57" s="55"/>
+      <c r="AM57" s="55"/>
+      <c r="AN57" s="77">
         <v>12</v>
       </c>
-      <c r="AK57" s="61"/>
-      <c r="AL57" s="61"/>
-      <c r="AM57" s="62">
-        <f t="shared" si="3"/>
+      <c r="AO57" s="77"/>
+      <c r="AP57" s="77"/>
+      <c r="AQ57" s="78">
+        <f t="shared" si="5"/>
         <v>6.9767441860465115E-2</v>
       </c>
-      <c r="AN57" s="62"/>
-      <c r="AO57" s="62"/>
-      <c r="AP57" s="63"/>
-      <c r="AQ57" s="63"/>
-      <c r="AR57" s="69">
-        <f>AE57-AM57</f>
+      <c r="AR57" s="78"/>
+      <c r="AS57" s="78"/>
+      <c r="AT57" s="55"/>
+      <c r="AU57" s="55"/>
+      <c r="AV57" s="76">
+        <f t="shared" si="4"/>
         <v>2.7006751687921979E-2</v>
       </c>
-      <c r="AS57" s="69"/>
-      <c r="AT57" s="69"/>
-      <c r="AU57" s="69"/>
-      <c r="AV57" s="5"/>
-      <c r="AW57" s="5"/>
-      <c r="AX57" s="5"/>
-      <c r="AY57" s="5"/>
+      <c r="AW57" s="76"/>
+      <c r="AX57" s="76"/>
+      <c r="AY57" s="76"/>
+      <c r="AZ57" s="5"/>
+      <c r="BA57" s="5"/>
       <c r="BB57" s="5"/>
       <c r="BC57" s="5"/>
-      <c r="BD57" s="5"/>
-      <c r="BH57" s="4"/>
-      <c r="BI57" s="4"/>
-      <c r="BJ57" s="4"/>
-    </row>
-    <row r="58" spans="7:62" x14ac:dyDescent="0.2">
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
+      <c r="BF57" s="5"/>
+      <c r="BG57" s="5"/>
+      <c r="BH57" s="5"/>
+      <c r="BL57" s="4"/>
+      <c r="BM57" s="4"/>
+      <c r="BN57" s="4"/>
+    </row>
+    <row r="58" spans="7:66" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
       <c r="J58" s="7"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="9"/>
-      <c r="AC58" s="9"/>
-      <c r="AD58" s="9"/>
-      <c r="AE58" s="9"/>
-      <c r="AF58" s="9"/>
-      <c r="AG58" s="9"/>
-      <c r="AH58" s="9"/>
-      <c r="AI58" s="9"/>
-      <c r="AJ58" s="9"/>
-      <c r="AK58" s="9"/>
-      <c r="AL58" s="9"/>
-      <c r="AM58" s="9"/>
-      <c r="AN58" s="5"/>
-      <c r="AO58" s="5"/>
-      <c r="AP58" s="5"/>
-      <c r="AQ58" s="5"/>
-      <c r="AR58" s="5"/>
-      <c r="AS58" s="5"/>
-      <c r="AT58" s="5"/>
-      <c r="AU58" s="5"/>
-      <c r="AV58" s="5"/>
-      <c r="AW58" s="5"/>
-      <c r="AX58" s="5"/>
-      <c r="AY58" s="5"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="80"/>
+      <c r="W58" s="81"/>
+      <c r="X58" s="81"/>
+      <c r="Y58" s="81"/>
+      <c r="Z58" s="81"/>
+      <c r="AA58" s="81"/>
+      <c r="AB58" s="81"/>
+      <c r="AC58" s="81"/>
+      <c r="AD58" s="81"/>
+      <c r="AE58" s="81"/>
+      <c r="AF58" s="58"/>
+      <c r="AG58" s="58"/>
+      <c r="AH58" s="58"/>
+      <c r="AI58" s="58"/>
+      <c r="AJ58" s="58"/>
+      <c r="AK58" s="58"/>
+      <c r="AL58" s="58"/>
+      <c r="AM58" s="58"/>
+      <c r="AN58" s="58"/>
+      <c r="AO58" s="58"/>
+      <c r="AP58" s="58"/>
+      <c r="AQ58" s="58"/>
+      <c r="AR58" s="58"/>
+      <c r="AS58" s="58"/>
+      <c r="AT58" s="58"/>
+      <c r="AU58" s="58"/>
+      <c r="AV58" s="58"/>
+      <c r="AW58" s="58"/>
+      <c r="AX58" s="58"/>
+      <c r="AY58" s="58"/>
+      <c r="AZ58" s="5"/>
+      <c r="BA58" s="5"/>
       <c r="BB58" s="5"/>
       <c r="BC58" s="5"/>
-      <c r="BD58" s="5"/>
-      <c r="BH58" s="4"/>
-      <c r="BI58" s="4"/>
-      <c r="BJ58" s="4"/>
-    </row>
-    <row r="59" spans="7:62" x14ac:dyDescent="0.2">
+      <c r="BF58" s="5"/>
+      <c r="BG58" s="5"/>
+      <c r="BH58" s="5"/>
+      <c r="BL58" s="4"/>
+      <c r="BM58" s="4"/>
+      <c r="BN58" s="4"/>
+    </row>
+    <row r="59" spans="7:66" x14ac:dyDescent="0.2">
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -5147,22 +5369,22 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
       <c r="X59" s="10"/>
       <c r="Y59" s="10"/>
       <c r="Z59" s="10"/>
       <c r="AA59" s="10"/>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
       <c r="AF59" s="5"/>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
@@ -5183,15 +5405,19 @@
       <c r="AW59" s="5"/>
       <c r="AX59" s="5"/>
       <c r="AY59" s="5"/>
-      <c r="AZ59" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="AZ59" s="5"/>
+      <c r="BA59" s="5"/>
       <c r="BB59" s="5"/>
       <c r="BC59" s="5"/>
-      <c r="BH59" s="4"/>
-      <c r="BI59" s="4"/>
-    </row>
-    <row r="60" spans="7:62" x14ac:dyDescent="0.2">
+      <c r="BD59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF59" s="5"/>
+      <c r="BG59" s="5"/>
+      <c r="BL59" s="4"/>
+      <c r="BM59" s="4"/>
+    </row>
+    <row r="60" spans="7:66" x14ac:dyDescent="0.2">
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -5237,10 +5463,14 @@
       <c r="AW60" s="5"/>
       <c r="AX60" s="5"/>
       <c r="AY60" s="5"/>
+      <c r="AZ60" s="5"/>
+      <c r="BA60" s="5"/>
       <c r="BB60" s="5"/>
-      <c r="BH60" s="4"/>
-    </row>
-    <row r="61" spans="7:62" x14ac:dyDescent="0.2">
+      <c r="BC60" s="5"/>
+      <c r="BF60" s="5"/>
+      <c r="BL60" s="4"/>
+    </row>
+    <row r="61" spans="7:66" x14ac:dyDescent="0.2">
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -5286,8 +5516,12 @@
       <c r="AW61" s="5"/>
       <c r="AX61" s="5"/>
       <c r="AY61" s="5"/>
-    </row>
-    <row r="62" spans="7:62" x14ac:dyDescent="0.2">
+      <c r="AZ61" s="5"/>
+      <c r="BA61" s="5"/>
+      <c r="BB61" s="5"/>
+      <c r="BC61" s="5"/>
+    </row>
+    <row r="62" spans="7:66" x14ac:dyDescent="0.2">
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -5333,61 +5567,65 @@
       <c r="AW62" s="5"/>
       <c r="AX62" s="5"/>
       <c r="AY62" s="5"/>
+      <c r="AZ62" s="5"/>
+      <c r="BA62" s="5"/>
+      <c r="BB62" s="5"/>
+      <c r="BC62" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="O4:AS4"/>
-    <mergeCell ref="R45:AU45"/>
-    <mergeCell ref="R46:Y46"/>
-    <mergeCell ref="AR52:AU52"/>
-    <mergeCell ref="AR53:AU53"/>
-    <mergeCell ref="AR54:AU54"/>
-    <mergeCell ref="AR55:AU55"/>
-    <mergeCell ref="AR56:AU56"/>
-    <mergeCell ref="AR57:AU57"/>
-    <mergeCell ref="AM48:AO48"/>
-    <mergeCell ref="AJ46:AO46"/>
-    <mergeCell ref="AR50:AU50"/>
-    <mergeCell ref="AR48:AU48"/>
-    <mergeCell ref="AR46:AU46"/>
-    <mergeCell ref="AB53:AD53"/>
-    <mergeCell ref="AB54:AD54"/>
-    <mergeCell ref="AB55:AD55"/>
-    <mergeCell ref="AB56:AD56"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="AB46:AG46"/>
-    <mergeCell ref="AJ48:AL48"/>
-    <mergeCell ref="AE48:AG48"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="AB50:AD50"/>
-    <mergeCell ref="AB51:AD51"/>
-    <mergeCell ref="AB52:AD52"/>
-    <mergeCell ref="AM57:AO57"/>
-    <mergeCell ref="AR51:AU51"/>
-    <mergeCell ref="AM51:AO51"/>
-    <mergeCell ref="AM52:AO52"/>
-    <mergeCell ref="AM53:AO53"/>
-    <mergeCell ref="AM54:AO54"/>
-    <mergeCell ref="AM55:AO55"/>
-    <mergeCell ref="AM56:AO56"/>
-    <mergeCell ref="AE57:AG57"/>
-    <mergeCell ref="AJ51:AL51"/>
-    <mergeCell ref="AJ52:AL52"/>
-    <mergeCell ref="AJ53:AL53"/>
-    <mergeCell ref="AJ54:AL54"/>
-    <mergeCell ref="AJ55:AL55"/>
-    <mergeCell ref="AJ56:AL56"/>
-    <mergeCell ref="AJ57:AL57"/>
-    <mergeCell ref="AE51:AG51"/>
-    <mergeCell ref="AE52:AG52"/>
-    <mergeCell ref="AE53:AG53"/>
-    <mergeCell ref="AE54:AG54"/>
-    <mergeCell ref="AE55:AG55"/>
-    <mergeCell ref="AE56:AG56"/>
-    <mergeCell ref="P23:AX23"/>
-    <mergeCell ref="AE50:AG50"/>
-    <mergeCell ref="AJ50:AL50"/>
-    <mergeCell ref="AM50:AO50"/>
+    <mergeCell ref="AN54:AP54"/>
+    <mergeCell ref="AN55:AP55"/>
+    <mergeCell ref="AN56:AP56"/>
+    <mergeCell ref="AN57:AP57"/>
+    <mergeCell ref="AI51:AK51"/>
+    <mergeCell ref="AI52:AK52"/>
+    <mergeCell ref="AI53:AK53"/>
+    <mergeCell ref="AI54:AK54"/>
+    <mergeCell ref="AI55:AK55"/>
+    <mergeCell ref="AI56:AK56"/>
+    <mergeCell ref="AF54:AH54"/>
+    <mergeCell ref="AF55:AH55"/>
+    <mergeCell ref="AF56:AH56"/>
+    <mergeCell ref="AF57:AH57"/>
+    <mergeCell ref="AF46:AK46"/>
+    <mergeCell ref="AI48:AK48"/>
+    <mergeCell ref="AF48:AH48"/>
+    <mergeCell ref="AF50:AH50"/>
+    <mergeCell ref="AF51:AH51"/>
+    <mergeCell ref="AF52:AH52"/>
+    <mergeCell ref="AI57:AK57"/>
+    <mergeCell ref="AI50:AK50"/>
+    <mergeCell ref="AV54:AY54"/>
+    <mergeCell ref="AV55:AY55"/>
+    <mergeCell ref="AV56:AY56"/>
+    <mergeCell ref="AV57:AY57"/>
+    <mergeCell ref="AQ48:AS48"/>
+    <mergeCell ref="AV50:AY50"/>
+    <mergeCell ref="AV48:AY48"/>
+    <mergeCell ref="AQ57:AS57"/>
+    <mergeCell ref="AV51:AY51"/>
+    <mergeCell ref="AQ51:AS51"/>
+    <mergeCell ref="AQ52:AS52"/>
+    <mergeCell ref="AQ53:AS53"/>
+    <mergeCell ref="AQ54:AS54"/>
+    <mergeCell ref="AQ55:AS55"/>
+    <mergeCell ref="AQ56:AS56"/>
+    <mergeCell ref="AQ50:AS50"/>
+    <mergeCell ref="S4:AW4"/>
+    <mergeCell ref="V45:AY45"/>
+    <mergeCell ref="V46:AC46"/>
+    <mergeCell ref="AV52:AY52"/>
+    <mergeCell ref="AV53:AY53"/>
+    <mergeCell ref="AN46:AS46"/>
+    <mergeCell ref="AV46:AY46"/>
+    <mergeCell ref="AF53:AH53"/>
+    <mergeCell ref="AN48:AP48"/>
+    <mergeCell ref="AN51:AP51"/>
+    <mergeCell ref="AN52:AP52"/>
+    <mergeCell ref="AN53:AP53"/>
+    <mergeCell ref="T23:BB23"/>
+    <mergeCell ref="AN50:AP50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/files/convención2020.xlsx
+++ b/files/convención2020.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/GitHub/tresquintos.github.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA0EC73-83F7-6247-B8B4-A295B71D173A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEECD990-ED28-6243-8449-B0FD64ABA0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cc" sheetId="1" r:id="rId1"/>
+    <sheet name="xonvención2020" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
   <si>
     <t>Derecha Tradicional</t>
   </si>
@@ -105,6 +105,48 @@
   </si>
   <si>
     <t>Coalición / Sector</t>
+  </si>
+  <si>
+    <t>Partidos</t>
+  </si>
+  <si>
+    <t>Lista Coaliciones</t>
+  </si>
+  <si>
+    <t>José Antonio Kast</t>
+  </si>
+  <si>
+    <t>Líder</t>
+  </si>
+  <si>
+    <t>RN/UDI/EVO/PRI</t>
+  </si>
+  <si>
+    <t>PS/PPD/PR</t>
+  </si>
+  <si>
+    <t>PC/PRO</t>
+  </si>
+  <si>
+    <t>Heraldo Muñoz</t>
+  </si>
+  <si>
+    <t>Beatriz Sánchez</t>
+  </si>
+  <si>
+    <t>Marco Enríquez-O</t>
+  </si>
+  <si>
+    <t>Joaquín Lavín</t>
+  </si>
+  <si>
+    <t>RD/PL/PODER</t>
+  </si>
+  <si>
+    <t>PH/PI/UP</t>
+  </si>
+  <si>
+    <t>DC/CIU</t>
   </si>
 </sst>
 </file>
@@ -522,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -848,6 +890,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -894,7 +965,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
@@ -956,7 +1027,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -964,26 +1034,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,6 +1067,76 @@
     <xf numFmtId="0" fontId="19" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1919,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN62"/>
+  <dimension ref="A1:BN81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="G26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1932,7 +2058,7 @@
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" style="68" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" style="63" customWidth="1"/>
     <col min="11" max="55" width="2.83203125" customWidth="1"/>
     <col min="56" max="57" width="2.83203125" style="5" customWidth="1"/>
     <col min="58" max="60" width="2.83203125" style="4" customWidth="1"/>
@@ -1961,7 +2087,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="66"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1996,7 +2122,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="67"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -2071,7 +2197,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="67"/>
+      <c r="J3" s="62"/>
       <c r="K3" s="18" t="s">
         <v>22</v>
       </c>
@@ -2157,39 +2283,39 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="73"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="64"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="64"/>
+      <c r="AQ4" s="64"/>
+      <c r="AR4" s="64"/>
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
       <c r="AX4" s="56"/>
       <c r="AY4" s="56"/>
       <c r="AZ4" s="56"/>
@@ -2318,9 +2444,9 @@
       <c r="AD6" s="22"/>
       <c r="AE6" s="22"/>
       <c r="AF6" s="22"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="82"/>
-      <c r="AI6" s="83"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="74"/>
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
       <c r="AL6" s="25"/>
@@ -2391,9 +2517,9 @@
       <c r="AD7" s="22"/>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="83"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="74"/>
       <c r="AJ7" s="25"/>
       <c r="AK7" s="25"/>
       <c r="AL7" s="25"/>
@@ -2464,9 +2590,9 @@
       <c r="AD8" s="22"/>
       <c r="AE8" s="22"/>
       <c r="AF8" s="34"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="83"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="74"/>
       <c r="AJ8" s="25"/>
       <c r="AK8" s="25"/>
       <c r="AL8" s="25"/>
@@ -2537,9 +2663,9 @@
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="34"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="83"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="74"/>
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
       <c r="AL9" s="25"/>
@@ -2588,9 +2714,9 @@
       <c r="AD10" s="37"/>
       <c r="AE10" s="37"/>
       <c r="AF10" s="39"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="85"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="76"/>
       <c r="AJ10" s="14"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
@@ -2799,7 +2925,7 @@
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
-      <c r="AG14" s="82"/>
+      <c r="AG14" s="73"/>
       <c r="AH14" s="10" t="s">
         <v>17</v>
       </c>
@@ -3277,43 +3403,43 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="79" t="s">
+      <c r="T23" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="79"/>
-      <c r="AH23" s="79"/>
-      <c r="AI23" s="79"/>
-      <c r="AJ23" s="79"/>
-      <c r="AK23" s="79"/>
-      <c r="AL23" s="79"/>
-      <c r="AM23" s="79"/>
-      <c r="AN23" s="79"/>
-      <c r="AO23" s="79"/>
-      <c r="AP23" s="79"/>
-      <c r="AQ23" s="79"/>
-      <c r="AR23" s="79"/>
-      <c r="AS23" s="79"/>
-      <c r="AT23" s="79"/>
-      <c r="AU23" s="79"/>
-      <c r="AV23" s="79"/>
-      <c r="AW23" s="79"/>
-      <c r="AX23" s="79"/>
-      <c r="AY23" s="79"/>
-      <c r="AZ23" s="79"/>
-      <c r="BA23" s="79"/>
-      <c r="BB23" s="79"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="70"/>
+      <c r="AL23" s="70"/>
+      <c r="AM23" s="70"/>
+      <c r="AN23" s="70"/>
+      <c r="AO23" s="70"/>
+      <c r="AP23" s="70"/>
+      <c r="AQ23" s="70"/>
+      <c r="AR23" s="70"/>
+      <c r="AS23" s="70"/>
+      <c r="AT23" s="70"/>
+      <c r="AU23" s="70"/>
+      <c r="AV23" s="70"/>
+      <c r="AW23" s="70"/>
+      <c r="AX23" s="70"/>
+      <c r="AY23" s="70"/>
+      <c r="AZ23" s="70"/>
+      <c r="BA23" s="70"/>
+      <c r="BB23" s="70"/>
       <c r="BC23" s="10"/>
     </row>
     <row r="24" spans="8:63" x14ac:dyDescent="0.2">
@@ -3394,10 +3520,10 @@
       <c r="AF25" s="22"/>
       <c r="AG25" s="24"/>
       <c r="AH25" s="23"/>
-      <c r="AI25" s="82"/>
-      <c r="AJ25" s="82"/>
-      <c r="AK25" s="82"/>
-      <c r="AL25" s="82"/>
+      <c r="AI25" s="73"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="73"/>
+      <c r="AL25" s="73"/>
       <c r="AM25" s="25"/>
       <c r="AN25" s="25"/>
       <c r="AO25" s="25"/>
@@ -3444,10 +3570,10 @@
       <c r="AF26" s="22"/>
       <c r="AG26" s="23"/>
       <c r="AH26" s="23"/>
-      <c r="AI26" s="82"/>
-      <c r="AJ26" s="82"/>
-      <c r="AK26" s="82"/>
-      <c r="AL26" s="82"/>
+      <c r="AI26" s="73"/>
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="73"/>
+      <c r="AL26" s="73"/>
       <c r="AM26" s="25"/>
       <c r="AN26" s="25"/>
       <c r="AO26" s="25"/>
@@ -3494,10 +3620,10 @@
       <c r="AF27" s="22"/>
       <c r="AG27" s="23"/>
       <c r="AH27" s="23"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="82"/>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="82"/>
+      <c r="AI27" s="73"/>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="73"/>
+      <c r="AL27" s="73"/>
       <c r="AM27" s="25"/>
       <c r="AN27" s="25"/>
       <c r="AO27" s="25"/>
@@ -3544,10 +3670,10 @@
       <c r="AF28" s="22"/>
       <c r="AG28" s="23"/>
       <c r="AH28" s="49"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
-      <c r="AL28" s="82"/>
+      <c r="AI28" s="73"/>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="73"/>
+      <c r="AL28" s="73"/>
       <c r="AM28" s="25"/>
       <c r="AN28" s="25"/>
       <c r="AO28" s="25"/>
@@ -3594,10 +3720,10 @@
       <c r="AF29" s="37"/>
       <c r="AG29" s="23"/>
       <c r="AH29" s="49"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="82"/>
-      <c r="AK29" s="82"/>
-      <c r="AL29" s="82"/>
+      <c r="AI29" s="73"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="73"/>
+      <c r="AL29" s="73"/>
       <c r="AM29" s="14"/>
       <c r="AN29" s="14"/>
       <c r="AO29" s="14"/>
@@ -3798,15 +3924,15 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="44"/>
-      <c r="U33" s="9" t="s">
+      <c r="U33" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
+      <c r="V33" s="85"/>
+      <c r="W33" s="85"/>
+      <c r="X33" s="85"/>
+      <c r="Y33" s="85"/>
+      <c r="Z33" s="85"/>
+      <c r="AA33" s="85"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
@@ -3814,7 +3940,7 @@
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
       <c r="AH33" s="10"/>
-      <c r="AI33" s="82"/>
+      <c r="AI33" s="73"/>
       <c r="AJ33" s="10" t="s">
         <v>17</v>
       </c>
@@ -3854,15 +3980,15 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="45"/>
-      <c r="U34" s="9" t="s">
+      <c r="U34" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="85"/>
       <c r="AB34" s="10"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
@@ -3910,15 +4036,15 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="46"/>
-      <c r="U35" s="9" t="s">
+      <c r="U35" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="100"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
@@ -4441,111 +4567,111 @@
       <c r="S45" s="4"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
-      <c r="V45" s="74" t="s">
+      <c r="V45" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="W45" s="74"/>
-      <c r="X45" s="74"/>
-      <c r="Y45" s="74"/>
-      <c r="Z45" s="74"/>
-      <c r="AA45" s="74"/>
-      <c r="AB45" s="74"/>
-      <c r="AC45" s="74"/>
-      <c r="AD45" s="74"/>
-      <c r="AE45" s="74"/>
-      <c r="AF45" s="74"/>
-      <c r="AG45" s="74"/>
-      <c r="AH45" s="74"/>
-      <c r="AI45" s="74"/>
-      <c r="AJ45" s="74"/>
-      <c r="AK45" s="74"/>
-      <c r="AL45" s="74"/>
-      <c r="AM45" s="74"/>
-      <c r="AN45" s="74"/>
-      <c r="AO45" s="74"/>
-      <c r="AP45" s="74"/>
-      <c r="AQ45" s="74"/>
-      <c r="AR45" s="74"/>
-      <c r="AS45" s="74"/>
-      <c r="AT45" s="74"/>
-      <c r="AU45" s="74"/>
-      <c r="AV45" s="74"/>
-      <c r="AW45" s="74"/>
-      <c r="AX45" s="74"/>
-      <c r="AY45" s="74"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="65"/>
+      <c r="AB45" s="65"/>
+      <c r="AC45" s="65"/>
+      <c r="AD45" s="65"/>
+      <c r="AE45" s="65"/>
+      <c r="AF45" s="65"/>
+      <c r="AG45" s="65"/>
+      <c r="AH45" s="65"/>
+      <c r="AI45" s="65"/>
+      <c r="AJ45" s="65"/>
+      <c r="AK45" s="65"/>
+      <c r="AL45" s="65"/>
+      <c r="AM45" s="65"/>
+      <c r="AN45" s="65"/>
+      <c r="AO45" s="65"/>
+      <c r="AP45" s="65"/>
+      <c r="AQ45" s="65"/>
+      <c r="AR45" s="65"/>
+      <c r="AS45" s="65"/>
+      <c r="AT45" s="65"/>
+      <c r="AU45" s="65"/>
+      <c r="AV45" s="65"/>
+      <c r="AW45" s="65"/>
+      <c r="AX45" s="65"/>
+      <c r="AY45" s="65"/>
       <c r="AZ45" s="5"/>
       <c r="BA45" s="5"/>
       <c r="BB45" s="5"/>
       <c r="BC45" s="5"/>
     </row>
-    <row r="46" spans="8:66" s="72" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="69"/>
-      <c r="P46" s="69"/>
-      <c r="Q46" s="69"/>
-      <c r="R46" s="69"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="57"/>
-      <c r="U46" s="57"/>
-      <c r="V46" s="75" t="s">
+    <row r="46" spans="8:66" s="98" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
+      <c r="V46" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="W46" s="75"/>
-      <c r="X46" s="75"/>
-      <c r="Y46" s="75"/>
-      <c r="Z46" s="75"/>
-      <c r="AA46" s="75"/>
-      <c r="AB46" s="75"/>
-      <c r="AC46" s="75"/>
-      <c r="AD46" s="54"/>
-      <c r="AE46" s="57"/>
-      <c r="AF46" s="74" t="s">
+      <c r="W46" s="99"/>
+      <c r="X46" s="99"/>
+      <c r="Y46" s="99"/>
+      <c r="Z46" s="99"/>
+      <c r="AA46" s="99"/>
+      <c r="AB46" s="99"/>
+      <c r="AC46" s="99"/>
+      <c r="AD46" s="94"/>
+      <c r="AE46" s="60"/>
+      <c r="AF46" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="AG46" s="74"/>
-      <c r="AH46" s="74"/>
-      <c r="AI46" s="74"/>
-      <c r="AJ46" s="74"/>
-      <c r="AK46" s="74"/>
-      <c r="AL46" s="59"/>
-      <c r="AM46" s="51"/>
-      <c r="AN46" s="74" t="s">
+      <c r="AG46" s="65"/>
+      <c r="AH46" s="65"/>
+      <c r="AI46" s="65"/>
+      <c r="AJ46" s="65"/>
+      <c r="AK46" s="65"/>
+      <c r="AL46" s="95"/>
+      <c r="AM46" s="96"/>
+      <c r="AN46" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AO46" s="74"/>
-      <c r="AP46" s="74"/>
-      <c r="AQ46" s="74"/>
-      <c r="AR46" s="74"/>
-      <c r="AS46" s="74"/>
-      <c r="AT46" s="59"/>
-      <c r="AU46" s="51"/>
-      <c r="AV46" s="74" t="s">
+      <c r="AO46" s="65"/>
+      <c r="AP46" s="65"/>
+      <c r="AQ46" s="65"/>
+      <c r="AR46" s="65"/>
+      <c r="AS46" s="65"/>
+      <c r="AT46" s="95"/>
+      <c r="AU46" s="96"/>
+      <c r="AV46" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AW46" s="74"/>
-      <c r="AX46" s="74"/>
-      <c r="AY46" s="74"/>
-      <c r="AZ46" s="71"/>
-      <c r="BA46" s="71"/>
-      <c r="BB46" s="71"/>
-      <c r="BC46" s="71"/>
-      <c r="BD46" s="71"/>
-      <c r="BE46" s="71"/>
-      <c r="BF46" s="71"/>
-      <c r="BG46" s="71"/>
-      <c r="BH46" s="71"/>
-      <c r="BI46" s="69"/>
-      <c r="BJ46" s="69"/>
-      <c r="BK46" s="69"/>
-      <c r="BL46" s="69"/>
-      <c r="BM46" s="69"/>
-      <c r="BN46" s="69"/>
+      <c r="AW46" s="65"/>
+      <c r="AX46" s="65"/>
+      <c r="AY46" s="65"/>
+      <c r="AZ46" s="97"/>
+      <c r="BA46" s="97"/>
+      <c r="BB46" s="97"/>
+      <c r="BC46" s="97"/>
+      <c r="BD46" s="97"/>
+      <c r="BE46" s="97"/>
+      <c r="BF46" s="97"/>
+      <c r="BG46" s="97"/>
+      <c r="BH46" s="97"/>
+      <c r="BI46" s="92"/>
+      <c r="BJ46" s="92"/>
+      <c r="BK46" s="92"/>
+      <c r="BL46" s="92"/>
+      <c r="BM46" s="92"/>
+      <c r="BN46" s="92"/>
     </row>
     <row r="47" spans="8:66" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H47" s="4"/>
@@ -4588,10 +4714,10 @@
       <c r="AS47" s="51"/>
       <c r="AT47" s="51"/>
       <c r="AU47" s="51"/>
-      <c r="AV47" s="59"/>
-      <c r="AW47" s="59"/>
-      <c r="AX47" s="59"/>
-      <c r="AY47" s="59"/>
+      <c r="AV47" s="58"/>
+      <c r="AW47" s="58"/>
+      <c r="AX47" s="58"/>
+      <c r="AY47" s="58"/>
       <c r="AZ47" s="5"/>
       <c r="BA47" s="5"/>
       <c r="BB47" s="5"/>
@@ -4618,46 +4744,46 @@
       <c r="S48" s="4"/>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
-      <c r="V48" s="80"/>
-      <c r="W48" s="81"/>
-      <c r="X48" s="81"/>
-      <c r="Y48" s="81"/>
-      <c r="Z48" s="81"/>
-      <c r="AA48" s="81"/>
-      <c r="AB48" s="81"/>
-      <c r="AC48" s="81"/>
+      <c r="V48" s="71"/>
+      <c r="W48" s="72"/>
+      <c r="X48" s="72"/>
+      <c r="Y48" s="72"/>
+      <c r="Z48" s="72"/>
+      <c r="AA48" s="72"/>
+      <c r="AB48" s="72"/>
+      <c r="AC48" s="72"/>
       <c r="AD48" s="10"/>
       <c r="AE48" s="9"/>
-      <c r="AF48" s="74" t="s">
+      <c r="AF48" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="AG48" s="74"/>
-      <c r="AH48" s="74"/>
-      <c r="AI48" s="74" t="s">
+      <c r="AG48" s="65"/>
+      <c r="AH48" s="65"/>
+      <c r="AI48" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="AJ48" s="74"/>
-      <c r="AK48" s="74"/>
+      <c r="AJ48" s="65"/>
+      <c r="AK48" s="65"/>
       <c r="AL48" s="51"/>
       <c r="AM48" s="51"/>
-      <c r="AN48" s="74" t="s">
+      <c r="AN48" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="AO48" s="74"/>
-      <c r="AP48" s="74"/>
-      <c r="AQ48" s="74" t="s">
+      <c r="AO48" s="65"/>
+      <c r="AP48" s="65"/>
+      <c r="AQ48" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="AR48" s="74"/>
-      <c r="AS48" s="74"/>
+      <c r="AR48" s="65"/>
+      <c r="AS48" s="65"/>
       <c r="AT48" s="51"/>
       <c r="AU48" s="51"/>
-      <c r="AV48" s="74" t="s">
+      <c r="AV48" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AW48" s="74"/>
-      <c r="AX48" s="74"/>
-      <c r="AY48" s="74"/>
+      <c r="AW48" s="65"/>
+      <c r="AX48" s="65"/>
+      <c r="AY48" s="65"/>
       <c r="AZ48" s="5"/>
       <c r="BA48" s="5"/>
       <c r="BB48" s="5"/>
@@ -4710,10 +4836,10 @@
       <c r="AS49" s="51"/>
       <c r="AT49" s="51"/>
       <c r="AU49" s="51"/>
-      <c r="AV49" s="59"/>
-      <c r="AW49" s="59"/>
-      <c r="AX49" s="59"/>
-      <c r="AY49" s="59"/>
+      <c r="AV49" s="58"/>
+      <c r="AW49" s="58"/>
+      <c r="AX49" s="58"/>
+      <c r="AY49" s="58"/>
       <c r="AZ49" s="5"/>
       <c r="BA49" s="5"/>
       <c r="BB49" s="5"/>
@@ -4742,50 +4868,50 @@
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="44"/>
-      <c r="W50" s="65" t="s">
+      <c r="W50" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
+      <c r="X50" s="85"/>
+      <c r="Y50" s="85"/>
+      <c r="Z50" s="85"/>
+      <c r="AA50" s="85"/>
+      <c r="AB50" s="85"/>
+      <c r="AC50" s="85"/>
       <c r="AD50" s="10"/>
       <c r="AE50" s="10"/>
-      <c r="AF50" s="77">
+      <c r="AF50" s="68">
         <v>5</v>
       </c>
-      <c r="AG50" s="77"/>
-      <c r="AH50" s="77"/>
-      <c r="AI50" s="78">
+      <c r="AG50" s="68"/>
+      <c r="AH50" s="68"/>
+      <c r="AI50" s="69">
         <f t="shared" ref="AI50:AI57" si="3">AF50/155</f>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="AJ50" s="78"/>
-      <c r="AK50" s="78"/>
+      <c r="AJ50" s="69"/>
+      <c r="AK50" s="69"/>
       <c r="AL50" s="55"/>
       <c r="AM50" s="55"/>
-      <c r="AN50" s="77">
+      <c r="AN50" s="68">
         <v>2</v>
       </c>
-      <c r="AO50" s="77"/>
-      <c r="AP50" s="77"/>
-      <c r="AQ50" s="78">
+      <c r="AO50" s="68"/>
+      <c r="AP50" s="68"/>
+      <c r="AQ50" s="69">
         <f>AN50/172</f>
         <v>1.1627906976744186E-2</v>
       </c>
-      <c r="AR50" s="78"/>
-      <c r="AS50" s="78"/>
+      <c r="AR50" s="69"/>
+      <c r="AS50" s="69"/>
       <c r="AT50" s="55"/>
       <c r="AU50" s="55"/>
-      <c r="AV50" s="76">
+      <c r="AV50" s="67">
         <f t="shared" ref="AV50:AV57" si="4">AI50-AQ50</f>
         <v>2.0630157539384845E-2</v>
       </c>
-      <c r="AW50" s="76"/>
-      <c r="AX50" s="76"/>
-      <c r="AY50" s="76"/>
+      <c r="AW50" s="67"/>
+      <c r="AX50" s="67"/>
+      <c r="AY50" s="67"/>
       <c r="AZ50" s="5"/>
       <c r="BA50" s="5"/>
       <c r="BB50" s="5"/>
@@ -4814,50 +4940,50 @@
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="45"/>
-      <c r="W51" s="62" t="s">
+      <c r="W51" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-      <c r="AB51" s="10"/>
-      <c r="AC51" s="10"/>
+      <c r="X51" s="85"/>
+      <c r="Y51" s="85"/>
+      <c r="Z51" s="85"/>
+      <c r="AA51" s="85"/>
+      <c r="AB51" s="85"/>
+      <c r="AC51" s="85"/>
       <c r="AD51" s="10"/>
       <c r="AE51" s="10"/>
-      <c r="AF51" s="77">
+      <c r="AF51" s="68">
         <v>57</v>
       </c>
-      <c r="AG51" s="77"/>
-      <c r="AH51" s="77"/>
-      <c r="AI51" s="78">
+      <c r="AG51" s="68"/>
+      <c r="AH51" s="68"/>
+      <c r="AI51" s="69">
         <f t="shared" si="3"/>
         <v>0.36774193548387096</v>
       </c>
-      <c r="AJ51" s="78"/>
-      <c r="AK51" s="78"/>
+      <c r="AJ51" s="69"/>
+      <c r="AK51" s="69"/>
       <c r="AL51" s="55"/>
       <c r="AM51" s="55"/>
-      <c r="AN51" s="77">
+      <c r="AN51" s="68">
         <v>71</v>
       </c>
-      <c r="AO51" s="77"/>
-      <c r="AP51" s="77"/>
-      <c r="AQ51" s="78">
+      <c r="AO51" s="68"/>
+      <c r="AP51" s="68"/>
+      <c r="AQ51" s="69">
         <f t="shared" ref="AQ51:AQ57" si="5">AN51/172</f>
         <v>0.41279069767441862</v>
       </c>
-      <c r="AR51" s="78"/>
-      <c r="AS51" s="78"/>
+      <c r="AR51" s="69"/>
+      <c r="AS51" s="69"/>
       <c r="AT51" s="55"/>
       <c r="AU51" s="55"/>
-      <c r="AV51" s="76">
+      <c r="AV51" s="67">
         <f t="shared" si="4"/>
         <v>-4.5048762190547653E-2</v>
       </c>
-      <c r="AW51" s="76"/>
-      <c r="AX51" s="76"/>
-      <c r="AY51" s="76"/>
+      <c r="AW51" s="67"/>
+      <c r="AX51" s="67"/>
+      <c r="AY51" s="67"/>
       <c r="AZ51" s="5"/>
       <c r="BA51" s="5"/>
       <c r="BB51" s="5"/>
@@ -4886,50 +5012,50 @@
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
       <c r="V52" s="46"/>
-      <c r="W52" s="62" t="s">
+      <c r="W52" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-      <c r="AB52" s="10"/>
-      <c r="AC52" s="10"/>
+      <c r="X52" s="85"/>
+      <c r="Y52" s="85"/>
+      <c r="Z52" s="85"/>
+      <c r="AA52" s="85"/>
+      <c r="AB52" s="85"/>
+      <c r="AC52" s="85"/>
       <c r="AD52" s="10"/>
       <c r="AE52" s="10"/>
-      <c r="AF52" s="77">
+      <c r="AF52" s="68">
         <v>3</v>
       </c>
-      <c r="AG52" s="77"/>
-      <c r="AH52" s="77"/>
-      <c r="AI52" s="78">
+      <c r="AG52" s="68"/>
+      <c r="AH52" s="68"/>
+      <c r="AI52" s="69">
         <f t="shared" si="3"/>
         <v>1.935483870967742E-2</v>
       </c>
-      <c r="AJ52" s="78"/>
-      <c r="AK52" s="78"/>
+      <c r="AJ52" s="69"/>
+      <c r="AK52" s="69"/>
       <c r="AL52" s="55"/>
       <c r="AM52" s="55"/>
-      <c r="AN52" s="77">
+      <c r="AN52" s="68">
         <v>2</v>
       </c>
-      <c r="AO52" s="77"/>
-      <c r="AP52" s="77"/>
-      <c r="AQ52" s="78">
+      <c r="AO52" s="68"/>
+      <c r="AP52" s="68"/>
+      <c r="AQ52" s="69">
         <f t="shared" si="5"/>
         <v>1.1627906976744186E-2</v>
       </c>
-      <c r="AR52" s="78"/>
-      <c r="AS52" s="78"/>
+      <c r="AR52" s="69"/>
+      <c r="AS52" s="69"/>
       <c r="AT52" s="55"/>
       <c r="AU52" s="55"/>
-      <c r="AV52" s="76">
+      <c r="AV52" s="67">
         <f t="shared" si="4"/>
         <v>7.7269317329332343E-3</v>
       </c>
-      <c r="AW52" s="76"/>
-      <c r="AX52" s="76"/>
-      <c r="AY52" s="76"/>
+      <c r="AW52" s="67"/>
+      <c r="AX52" s="67"/>
+      <c r="AY52" s="67"/>
       <c r="AZ52" s="5"/>
       <c r="BA52" s="5"/>
       <c r="BB52" s="5"/>
@@ -4957,51 +5083,51 @@
       <c r="S53" s="5"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
-      <c r="V53" s="82"/>
-      <c r="W53" s="63" t="s">
+      <c r="V53" s="73"/>
+      <c r="W53" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-      <c r="AB53" s="10"/>
-      <c r="AC53" s="10"/>
+      <c r="X53" s="77"/>
+      <c r="Y53" s="77"/>
+      <c r="Z53" s="77"/>
+      <c r="AA53" s="77"/>
+      <c r="AB53" s="77"/>
+      <c r="AC53" s="77"/>
       <c r="AD53" s="10"/>
       <c r="AE53" s="10"/>
-      <c r="AF53" s="77">
+      <c r="AF53" s="68">
         <v>15</v>
       </c>
-      <c r="AG53" s="77"/>
-      <c r="AH53" s="77"/>
-      <c r="AI53" s="78">
+      <c r="AG53" s="68"/>
+      <c r="AH53" s="68"/>
+      <c r="AI53" s="69">
         <f t="shared" si="3"/>
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="AJ53" s="78"/>
-      <c r="AK53" s="78"/>
+      <c r="AJ53" s="69"/>
+      <c r="AK53" s="69"/>
       <c r="AL53" s="55"/>
       <c r="AM53" s="55"/>
-      <c r="AN53" s="77">
+      <c r="AN53" s="68">
         <v>20</v>
       </c>
-      <c r="AO53" s="77"/>
-      <c r="AP53" s="77"/>
-      <c r="AQ53" s="78">
+      <c r="AO53" s="68"/>
+      <c r="AP53" s="68"/>
+      <c r="AQ53" s="69">
         <f t="shared" si="5"/>
         <v>0.11627906976744186</v>
       </c>
-      <c r="AR53" s="78"/>
-      <c r="AS53" s="78"/>
+      <c r="AR53" s="69"/>
+      <c r="AS53" s="69"/>
       <c r="AT53" s="55"/>
       <c r="AU53" s="55"/>
-      <c r="AV53" s="76">
+      <c r="AV53" s="67">
         <f t="shared" si="4"/>
         <v>-1.9504876219054765E-2</v>
       </c>
-      <c r="AW53" s="76"/>
-      <c r="AX53" s="76"/>
-      <c r="AY53" s="76"/>
+      <c r="AW53" s="67"/>
+      <c r="AX53" s="67"/>
+      <c r="AY53" s="67"/>
       <c r="AZ53" s="5"/>
       <c r="BA53" s="5"/>
       <c r="BB53" s="5"/>
@@ -5030,50 +5156,50 @@
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
       <c r="V54" s="14"/>
-      <c r="W54" s="63" t="s">
+      <c r="W54" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
+      <c r="X54" s="78"/>
+      <c r="Y54" s="78"/>
+      <c r="Z54" s="78"/>
+      <c r="AA54" s="78"/>
+      <c r="AB54" s="78"/>
+      <c r="AC54" s="78"/>
       <c r="AD54" s="10"/>
       <c r="AE54" s="10"/>
-      <c r="AF54" s="77">
+      <c r="AF54" s="68">
         <v>37</v>
       </c>
-      <c r="AG54" s="77"/>
-      <c r="AH54" s="77"/>
-      <c r="AI54" s="78">
+      <c r="AG54" s="68"/>
+      <c r="AH54" s="68"/>
+      <c r="AI54" s="69">
         <f t="shared" si="3"/>
         <v>0.23870967741935484</v>
       </c>
-      <c r="AJ54" s="78"/>
-      <c r="AK54" s="78"/>
+      <c r="AJ54" s="69"/>
+      <c r="AK54" s="69"/>
       <c r="AL54" s="55"/>
       <c r="AM54" s="55"/>
-      <c r="AN54" s="77">
+      <c r="AN54" s="68">
         <v>39</v>
       </c>
-      <c r="AO54" s="77"/>
-      <c r="AP54" s="77"/>
-      <c r="AQ54" s="78">
+      <c r="AO54" s="68"/>
+      <c r="AP54" s="68"/>
+      <c r="AQ54" s="69">
         <f t="shared" si="5"/>
         <v>0.22674418604651161</v>
       </c>
-      <c r="AR54" s="78"/>
-      <c r="AS54" s="78"/>
+      <c r="AR54" s="69"/>
+      <c r="AS54" s="69"/>
       <c r="AT54" s="55"/>
       <c r="AU54" s="55"/>
-      <c r="AV54" s="76">
+      <c r="AV54" s="67">
         <f t="shared" si="4"/>
         <v>1.1965491372843223E-2</v>
       </c>
-      <c r="AW54" s="76"/>
-      <c r="AX54" s="76"/>
-      <c r="AY54" s="76"/>
+      <c r="AW54" s="67"/>
+      <c r="AX54" s="67"/>
+      <c r="AY54" s="67"/>
       <c r="AZ54" s="5"/>
       <c r="BA54" s="5"/>
       <c r="BB54" s="5"/>
@@ -5102,50 +5228,50 @@
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="12"/>
-      <c r="W55" s="64" t="s">
+      <c r="W55" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
+      <c r="X55" s="89"/>
+      <c r="Y55" s="89"/>
+      <c r="Z55" s="89"/>
+      <c r="AA55" s="89"/>
+      <c r="AB55" s="89"/>
+      <c r="AC55" s="89"/>
       <c r="AD55" s="10"/>
       <c r="AE55" s="10"/>
-      <c r="AF55" s="77">
+      <c r="AF55" s="68">
         <v>11</v>
       </c>
-      <c r="AG55" s="77"/>
-      <c r="AH55" s="77"/>
-      <c r="AI55" s="78">
+      <c r="AG55" s="68"/>
+      <c r="AH55" s="68"/>
+      <c r="AI55" s="69">
         <f t="shared" si="3"/>
         <v>7.0967741935483872E-2</v>
       </c>
-      <c r="AJ55" s="78"/>
-      <c r="AK55" s="78"/>
+      <c r="AJ55" s="69"/>
+      <c r="AK55" s="69"/>
       <c r="AL55" s="55"/>
       <c r="AM55" s="55"/>
-      <c r="AN55" s="77">
+      <c r="AN55" s="68">
         <v>14</v>
       </c>
-      <c r="AO55" s="77"/>
-      <c r="AP55" s="77"/>
-      <c r="AQ55" s="78">
+      <c r="AO55" s="68"/>
+      <c r="AP55" s="68"/>
+      <c r="AQ55" s="69">
         <f t="shared" si="5"/>
         <v>8.1395348837209308E-2</v>
       </c>
-      <c r="AR55" s="78"/>
-      <c r="AS55" s="78"/>
+      <c r="AR55" s="69"/>
+      <c r="AS55" s="69"/>
       <c r="AT55" s="55"/>
       <c r="AU55" s="55"/>
-      <c r="AV55" s="76">
+      <c r="AV55" s="67">
         <f t="shared" si="4"/>
         <v>-1.0427606901725436E-2</v>
       </c>
-      <c r="AW55" s="76"/>
-      <c r="AX55" s="76"/>
-      <c r="AY55" s="76"/>
+      <c r="AW55" s="67"/>
+      <c r="AX55" s="67"/>
+      <c r="AY55" s="67"/>
       <c r="AZ55" s="5"/>
       <c r="BA55" s="5"/>
       <c r="BB55" s="5"/>
@@ -5174,50 +5300,50 @@
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
       <c r="V56" s="15"/>
-      <c r="W56" s="61" t="s">
+      <c r="W56" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="X56" s="60"/>
-      <c r="Y56" s="60"/>
-      <c r="Z56" s="60"/>
-      <c r="AA56" s="60"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
+      <c r="X56" s="91"/>
+      <c r="Y56" s="91"/>
+      <c r="Z56" s="91"/>
+      <c r="AA56" s="91"/>
+      <c r="AB56" s="91"/>
+      <c r="AC56" s="91"/>
       <c r="AD56" s="10"/>
       <c r="AE56" s="10"/>
-      <c r="AF56" s="77">
+      <c r="AF56" s="68">
         <v>12</v>
       </c>
-      <c r="AG56" s="77"/>
-      <c r="AH56" s="77"/>
-      <c r="AI56" s="78">
+      <c r="AG56" s="68"/>
+      <c r="AH56" s="68"/>
+      <c r="AI56" s="69">
         <f t="shared" si="3"/>
         <v>7.7419354838709681E-2</v>
       </c>
-      <c r="AJ56" s="78"/>
-      <c r="AK56" s="78"/>
+      <c r="AJ56" s="69"/>
+      <c r="AK56" s="69"/>
       <c r="AL56" s="55"/>
       <c r="AM56" s="55"/>
-      <c r="AN56" s="77">
+      <c r="AN56" s="68">
         <v>12</v>
       </c>
-      <c r="AO56" s="77"/>
-      <c r="AP56" s="77"/>
-      <c r="AQ56" s="78">
+      <c r="AO56" s="68"/>
+      <c r="AP56" s="68"/>
+      <c r="AQ56" s="69">
         <f t="shared" si="5"/>
         <v>6.9767441860465115E-2</v>
       </c>
-      <c r="AR56" s="78"/>
-      <c r="AS56" s="78"/>
+      <c r="AR56" s="69"/>
+      <c r="AS56" s="69"/>
       <c r="AT56" s="55"/>
       <c r="AU56" s="55"/>
-      <c r="AV56" s="76">
+      <c r="AV56" s="67">
         <f t="shared" si="4"/>
         <v>7.6519129782445655E-3</v>
       </c>
-      <c r="AW56" s="76"/>
-      <c r="AX56" s="76"/>
-      <c r="AY56" s="76"/>
+      <c r="AW56" s="67"/>
+      <c r="AX56" s="67"/>
+      <c r="AY56" s="67"/>
       <c r="AZ56" s="5"/>
       <c r="BA56" s="5"/>
       <c r="BB56" s="5"/>
@@ -5246,50 +5372,50 @@
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
       <c r="V57" s="17"/>
-      <c r="W57" s="64" t="s">
+      <c r="W57" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-      <c r="AB57" s="10"/>
-      <c r="AC57" s="10"/>
+      <c r="X57" s="89"/>
+      <c r="Y57" s="89"/>
+      <c r="Z57" s="89"/>
+      <c r="AA57" s="89"/>
+      <c r="AB57" s="89"/>
+      <c r="AC57" s="89"/>
       <c r="AD57" s="10"/>
       <c r="AE57" s="10"/>
-      <c r="AF57" s="77">
+      <c r="AF57" s="68">
         <v>15</v>
       </c>
-      <c r="AG57" s="77"/>
-      <c r="AH57" s="77"/>
-      <c r="AI57" s="78">
+      <c r="AG57" s="68"/>
+      <c r="AH57" s="68"/>
+      <c r="AI57" s="69">
         <f t="shared" si="3"/>
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="AJ57" s="78"/>
-      <c r="AK57" s="78"/>
+      <c r="AJ57" s="69"/>
+      <c r="AK57" s="69"/>
       <c r="AL57" s="55"/>
       <c r="AM57" s="55"/>
-      <c r="AN57" s="77">
+      <c r="AN57" s="68">
         <v>12</v>
       </c>
-      <c r="AO57" s="77"/>
-      <c r="AP57" s="77"/>
-      <c r="AQ57" s="78">
+      <c r="AO57" s="68"/>
+      <c r="AP57" s="68"/>
+      <c r="AQ57" s="69">
         <f t="shared" si="5"/>
         <v>6.9767441860465115E-2</v>
       </c>
-      <c r="AR57" s="78"/>
-      <c r="AS57" s="78"/>
+      <c r="AR57" s="69"/>
+      <c r="AS57" s="69"/>
       <c r="AT57" s="55"/>
       <c r="AU57" s="55"/>
-      <c r="AV57" s="76">
+      <c r="AV57" s="67">
         <f t="shared" si="4"/>
         <v>2.7006751687921979E-2</v>
       </c>
-      <c r="AW57" s="76"/>
-      <c r="AX57" s="76"/>
-      <c r="AY57" s="76"/>
+      <c r="AW57" s="67"/>
+      <c r="AX57" s="67"/>
+      <c r="AY57" s="67"/>
       <c r="AZ57" s="5"/>
       <c r="BA57" s="5"/>
       <c r="BB57" s="5"/>
@@ -5316,36 +5442,36 @@
       <c r="S58" s="4"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
-      <c r="V58" s="80"/>
-      <c r="W58" s="81"/>
-      <c r="X58" s="81"/>
-      <c r="Y58" s="81"/>
-      <c r="Z58" s="81"/>
-      <c r="AA58" s="81"/>
-      <c r="AB58" s="81"/>
-      <c r="AC58" s="81"/>
-      <c r="AD58" s="81"/>
-      <c r="AE58" s="81"/>
-      <c r="AF58" s="58"/>
-      <c r="AG58" s="58"/>
-      <c r="AH58" s="58"/>
-      <c r="AI58" s="58"/>
-      <c r="AJ58" s="58"/>
-      <c r="AK58" s="58"/>
-      <c r="AL58" s="58"/>
-      <c r="AM58" s="58"/>
-      <c r="AN58" s="58"/>
-      <c r="AO58" s="58"/>
-      <c r="AP58" s="58"/>
-      <c r="AQ58" s="58"/>
-      <c r="AR58" s="58"/>
-      <c r="AS58" s="58"/>
-      <c r="AT58" s="58"/>
-      <c r="AU58" s="58"/>
-      <c r="AV58" s="58"/>
-      <c r="AW58" s="58"/>
-      <c r="AX58" s="58"/>
-      <c r="AY58" s="58"/>
+      <c r="V58" s="71"/>
+      <c r="W58" s="72"/>
+      <c r="X58" s="72"/>
+      <c r="Y58" s="72"/>
+      <c r="Z58" s="72"/>
+      <c r="AA58" s="72"/>
+      <c r="AB58" s="72"/>
+      <c r="AC58" s="72"/>
+      <c r="AD58" s="72"/>
+      <c r="AE58" s="72"/>
+      <c r="AF58" s="57"/>
+      <c r="AG58" s="57"/>
+      <c r="AH58" s="57"/>
+      <c r="AI58" s="57"/>
+      <c r="AJ58" s="57"/>
+      <c r="AK58" s="57"/>
+      <c r="AL58" s="57"/>
+      <c r="AM58" s="57"/>
+      <c r="AN58" s="57"/>
+      <c r="AO58" s="57"/>
+      <c r="AP58" s="57"/>
+      <c r="AQ58" s="57"/>
+      <c r="AR58" s="57"/>
+      <c r="AS58" s="57"/>
+      <c r="AT58" s="57"/>
+      <c r="AU58" s="57"/>
+      <c r="AV58" s="57"/>
+      <c r="AW58" s="57"/>
+      <c r="AX58" s="57"/>
+      <c r="AY58" s="57"/>
       <c r="AZ58" s="5"/>
       <c r="BA58" s="5"/>
       <c r="BB58" s="5"/>
@@ -5572,8 +5698,1077 @@
       <c r="BB62" s="5"/>
       <c r="BC62" s="5"/>
     </row>
+    <row r="63" spans="7:66" x14ac:dyDescent="0.2">
+      <c r="J63" s="7"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="9"/>
+      <c r="AJ63" s="9"/>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="10"/>
+      <c r="AM63" s="9"/>
+      <c r="AN63" s="9"/>
+      <c r="AO63" s="9"/>
+      <c r="AP63" s="9"/>
+      <c r="AQ63" s="9"/>
+      <c r="AR63" s="9"/>
+      <c r="AS63" s="9"/>
+      <c r="AT63" s="9"/>
+      <c r="AU63" s="9"/>
+      <c r="AV63" s="9"/>
+      <c r="AW63" s="9"/>
+      <c r="AX63" s="9"/>
+      <c r="AY63" s="9"/>
+      <c r="AZ63" s="9"/>
+      <c r="BA63" s="10"/>
+      <c r="BB63" s="10"/>
+      <c r="BC63" s="10"/>
+      <c r="BD63" s="9"/>
+      <c r="BE63" s="9"/>
+      <c r="BF63" s="10"/>
+      <c r="BG63" s="10"/>
+      <c r="BH63" s="10"/>
+      <c r="BL63" s="4"/>
+      <c r="BM63" s="4"/>
+      <c r="BN63" s="4"/>
+    </row>
+    <row r="64" spans="7:66" x14ac:dyDescent="0.2">
+      <c r="J64" s="7"/>
+      <c r="K64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+      <c r="AM64" s="5"/>
+      <c r="AN64" s="5"/>
+      <c r="AO64" s="5"/>
+      <c r="AP64" s="5"/>
+      <c r="AQ64" s="5"/>
+      <c r="AR64" s="5"/>
+      <c r="AS64" s="5"/>
+      <c r="AT64" s="5"/>
+      <c r="AU64" s="5"/>
+      <c r="AV64" s="5"/>
+      <c r="AW64" s="5"/>
+      <c r="AX64" s="5"/>
+      <c r="AY64" s="5"/>
+      <c r="AZ64" s="5"/>
+      <c r="BA64" s="5"/>
+      <c r="BB64" s="5"/>
+      <c r="BC64" s="5"/>
+      <c r="BD64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE64" s="6"/>
+    </row>
+    <row r="65" spans="8:66" x14ac:dyDescent="0.2">
+      <c r="J65" s="7"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z65" s="65"/>
+      <c r="AA65" s="65"/>
+      <c r="AB65" s="65"/>
+      <c r="AC65" s="65"/>
+      <c r="AD65" s="65"/>
+      <c r="AE65" s="65"/>
+      <c r="AF65" s="65"/>
+      <c r="AG65" s="65"/>
+      <c r="AH65" s="65"/>
+      <c r="AI65" s="65"/>
+      <c r="AJ65" s="65"/>
+      <c r="AK65" s="65"/>
+      <c r="AL65" s="65"/>
+      <c r="AM65" s="65"/>
+      <c r="AN65" s="65"/>
+      <c r="AO65" s="65"/>
+      <c r="AP65" s="65"/>
+      <c r="AQ65" s="65"/>
+      <c r="AR65" s="65"/>
+      <c r="AS65" s="65"/>
+      <c r="AT65" s="65"/>
+      <c r="AU65" s="65"/>
+      <c r="AV65" s="65"/>
+      <c r="AW65" s="65"/>
+      <c r="AX65" s="54"/>
+      <c r="AY65" s="54"/>
+      <c r="AZ65" s="54"/>
+      <c r="BA65" s="54"/>
+      <c r="BB65" s="54"/>
+      <c r="BC65" s="5"/>
+    </row>
+    <row r="66" spans="8:66" x14ac:dyDescent="0.2">
+      <c r="J66" s="7"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z66" s="80"/>
+      <c r="AA66" s="80"/>
+      <c r="AB66" s="80"/>
+      <c r="AC66" s="80"/>
+      <c r="AD66" s="80"/>
+      <c r="AE66" s="80"/>
+      <c r="AF66" s="80"/>
+      <c r="AG66" s="10"/>
+      <c r="AH66" s="9"/>
+      <c r="AI66" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ66" s="80"/>
+      <c r="AK66" s="80"/>
+      <c r="AL66" s="80"/>
+      <c r="AM66" s="80"/>
+      <c r="AN66" s="80"/>
+      <c r="AO66" s="51"/>
+      <c r="AP66" s="51"/>
+      <c r="AQ66" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR66" s="80"/>
+      <c r="AS66" s="80"/>
+      <c r="AT66" s="80"/>
+      <c r="AU66" s="80"/>
+      <c r="AV66" s="80"/>
+      <c r="AW66" s="51"/>
+      <c r="AX66" s="58"/>
+      <c r="AY66" s="58"/>
+      <c r="AZ66" s="58"/>
+      <c r="BA66" s="58"/>
+      <c r="BB66" s="58"/>
+      <c r="BC66" s="5"/>
+      <c r="BF66" s="5"/>
+    </row>
+    <row r="67" spans="8:66" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J67" s="7"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="66"/>
+      <c r="Z67" s="66"/>
+      <c r="AA67" s="66"/>
+      <c r="AB67" s="66"/>
+      <c r="AC67" s="66"/>
+      <c r="AD67" s="66"/>
+      <c r="AE67" s="66"/>
+      <c r="AF67" s="66"/>
+      <c r="AG67" s="10"/>
+      <c r="AH67" s="9"/>
+      <c r="AI67" s="66"/>
+      <c r="AJ67" s="66"/>
+      <c r="AK67" s="66"/>
+      <c r="AL67" s="66"/>
+      <c r="AM67" s="66"/>
+      <c r="AN67" s="66"/>
+      <c r="AO67" s="51"/>
+      <c r="AP67" s="51"/>
+      <c r="AQ67" s="66"/>
+      <c r="AR67" s="66"/>
+      <c r="AS67" s="66"/>
+      <c r="AT67" s="66"/>
+      <c r="AU67" s="66"/>
+      <c r="AV67" s="66"/>
+      <c r="AW67" s="51"/>
+      <c r="AX67" s="58"/>
+      <c r="AY67" s="81"/>
+      <c r="AZ67" s="81"/>
+      <c r="BA67" s="81"/>
+      <c r="BB67" s="81"/>
+      <c r="BC67" s="5"/>
+      <c r="BF67" s="5"/>
+    </row>
+    <row r="68" spans="8:66" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="53"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
+      <c r="AG68" s="10"/>
+      <c r="AH68" s="9"/>
+      <c r="AI68" s="51"/>
+      <c r="AJ68" s="51"/>
+      <c r="AK68" s="51"/>
+      <c r="AL68" s="51"/>
+      <c r="AM68" s="51"/>
+      <c r="AN68" s="51"/>
+      <c r="AO68" s="51"/>
+      <c r="AP68" s="51"/>
+      <c r="AQ68" s="51"/>
+      <c r="AR68" s="51"/>
+      <c r="AS68" s="51"/>
+      <c r="AT68" s="51"/>
+      <c r="AU68" s="51"/>
+      <c r="AV68" s="51"/>
+      <c r="AW68" s="51"/>
+      <c r="AX68" s="58"/>
+      <c r="AY68" s="58"/>
+      <c r="AZ68" s="58"/>
+      <c r="BA68" s="58"/>
+      <c r="BB68" s="58"/>
+      <c r="BC68" s="5"/>
+      <c r="BF68" s="5"/>
+      <c r="BG68" s="5"/>
+      <c r="BH68" s="5"/>
+      <c r="BL68" s="4"/>
+      <c r="BM68" s="4"/>
+      <c r="BN68" s="4"/>
+    </row>
+    <row r="69" spans="8:66" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="53"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
+      <c r="AG69" s="10"/>
+      <c r="AH69" s="9"/>
+      <c r="AI69" s="51"/>
+      <c r="AJ69" s="51"/>
+      <c r="AK69" s="51"/>
+      <c r="AL69" s="51"/>
+      <c r="AM69" s="51"/>
+      <c r="AN69" s="51"/>
+      <c r="AO69" s="51"/>
+      <c r="AP69" s="51"/>
+      <c r="AQ69" s="51"/>
+      <c r="AR69" s="51"/>
+      <c r="AS69" s="51"/>
+      <c r="AT69" s="51"/>
+      <c r="AU69" s="51"/>
+      <c r="AV69" s="51"/>
+      <c r="AW69" s="51"/>
+      <c r="AX69" s="51"/>
+      <c r="AY69" s="58"/>
+      <c r="AZ69" s="58"/>
+      <c r="BA69" s="58"/>
+      <c r="BB69" s="58"/>
+      <c r="BC69" s="5"/>
+      <c r="BF69" s="5"/>
+      <c r="BG69" s="5"/>
+      <c r="BH69" s="5"/>
+      <c r="BL69" s="4"/>
+      <c r="BM69" s="4"/>
+      <c r="BN69" s="4"/>
+    </row>
+    <row r="70" spans="8:66" x14ac:dyDescent="0.2">
+      <c r="J70" s="7"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="44"/>
+      <c r="Z70" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="85"/>
+      <c r="AB70" s="85"/>
+      <c r="AC70" s="85"/>
+      <c r="AD70" s="85"/>
+      <c r="AE70" s="85"/>
+      <c r="AF70" s="85"/>
+      <c r="AG70" s="10"/>
+      <c r="AH70" s="10"/>
+      <c r="AI70" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ70" s="77"/>
+      <c r="AK70" s="77"/>
+      <c r="AL70" s="77"/>
+      <c r="AM70" s="77"/>
+      <c r="AN70" s="77"/>
+      <c r="AO70" s="55"/>
+      <c r="AP70" s="55"/>
+      <c r="AQ70" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR70" s="59"/>
+      <c r="AS70" s="59"/>
+      <c r="AT70" s="79"/>
+      <c r="AU70" s="79"/>
+      <c r="AV70" s="79"/>
+      <c r="AW70" s="55"/>
+      <c r="AX70" s="82"/>
+      <c r="AY70" s="83"/>
+      <c r="AZ70" s="83"/>
+      <c r="BA70" s="83"/>
+      <c r="BB70" s="83"/>
+      <c r="BC70" s="5"/>
+      <c r="BF70" s="5"/>
+    </row>
+    <row r="71" spans="8:66" x14ac:dyDescent="0.2">
+      <c r="J71" s="7"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="45"/>
+      <c r="Z71" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="85"/>
+      <c r="AB71" s="85"/>
+      <c r="AC71" s="85"/>
+      <c r="AD71" s="85"/>
+      <c r="AE71" s="85"/>
+      <c r="AF71" s="85"/>
+      <c r="AG71" s="10"/>
+      <c r="AH71" s="10"/>
+      <c r="AI71" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ71" s="77"/>
+      <c r="AK71" s="77"/>
+      <c r="AL71" s="77"/>
+      <c r="AM71" s="77"/>
+      <c r="AN71" s="77"/>
+      <c r="AO71" s="55"/>
+      <c r="AP71" s="55"/>
+      <c r="AQ71" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR71" s="77"/>
+      <c r="AS71" s="77"/>
+      <c r="AT71" s="77"/>
+      <c r="AU71" s="77"/>
+      <c r="AV71" s="77"/>
+      <c r="AW71" s="55"/>
+      <c r="AX71" s="82"/>
+      <c r="AY71" s="83"/>
+      <c r="AZ71" s="83"/>
+      <c r="BA71" s="83"/>
+      <c r="BB71" s="83"/>
+      <c r="BC71" s="5"/>
+      <c r="BF71" s="5"/>
+    </row>
+    <row r="72" spans="8:66" x14ac:dyDescent="0.2">
+      <c r="J72" s="7"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="46"/>
+      <c r="Z72" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA72" s="85"/>
+      <c r="AB72" s="85"/>
+      <c r="AC72" s="85"/>
+      <c r="AD72" s="85"/>
+      <c r="AE72" s="85"/>
+      <c r="AF72" s="85"/>
+      <c r="AG72" s="10"/>
+      <c r="AH72" s="10"/>
+      <c r="AI72" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ72" s="86"/>
+      <c r="AK72" s="86"/>
+      <c r="AL72" s="86"/>
+      <c r="AM72" s="86"/>
+      <c r="AN72" s="86"/>
+      <c r="AO72" s="55"/>
+      <c r="AP72" s="55"/>
+      <c r="AQ72" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR72" s="86"/>
+      <c r="AS72" s="86"/>
+      <c r="AT72" s="86"/>
+      <c r="AU72" s="86"/>
+      <c r="AV72" s="86"/>
+      <c r="AW72" s="55"/>
+      <c r="AX72" s="82"/>
+      <c r="AY72" s="83"/>
+      <c r="AZ72" s="83"/>
+      <c r="BA72" s="83"/>
+      <c r="BB72" s="83"/>
+      <c r="BC72" s="5"/>
+      <c r="BF72" s="5"/>
+    </row>
+    <row r="73" spans="8:66" x14ac:dyDescent="0.2">
+      <c r="J73" s="7"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="73"/>
+      <c r="Z73" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA73" s="77"/>
+      <c r="AB73" s="77"/>
+      <c r="AC73" s="77"/>
+      <c r="AD73" s="77"/>
+      <c r="AE73" s="77"/>
+      <c r="AF73" s="77"/>
+      <c r="AG73" s="10"/>
+      <c r="AH73" s="10"/>
+      <c r="AI73" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ73" s="77"/>
+      <c r="AK73" s="77"/>
+      <c r="AL73" s="77"/>
+      <c r="AM73" s="77"/>
+      <c r="AN73" s="77"/>
+      <c r="AO73" s="55"/>
+      <c r="AP73" s="55"/>
+      <c r="AQ73" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR73" s="77"/>
+      <c r="AS73" s="77"/>
+      <c r="AT73" s="77"/>
+      <c r="AU73" s="77"/>
+      <c r="AV73" s="77"/>
+      <c r="AW73" s="55"/>
+      <c r="AX73" s="82"/>
+      <c r="AY73" s="83"/>
+      <c r="AZ73" s="83"/>
+      <c r="BA73" s="83"/>
+      <c r="BB73" s="83"/>
+      <c r="BC73" s="5"/>
+      <c r="BF73" s="5"/>
+    </row>
+    <row r="74" spans="8:66" x14ac:dyDescent="0.2">
+      <c r="J74" s="7"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA74" s="78"/>
+      <c r="AB74" s="78"/>
+      <c r="AC74" s="78"/>
+      <c r="AD74" s="78"/>
+      <c r="AE74" s="78"/>
+      <c r="AF74" s="78"/>
+      <c r="AG74" s="10"/>
+      <c r="AH74" s="10"/>
+      <c r="AI74" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ74" s="77"/>
+      <c r="AK74" s="77"/>
+      <c r="AL74" s="77"/>
+      <c r="AM74" s="77"/>
+      <c r="AN74" s="77"/>
+      <c r="AO74" s="55"/>
+      <c r="AP74" s="55"/>
+      <c r="AQ74" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR74" s="77"/>
+      <c r="AS74" s="77"/>
+      <c r="AT74" s="77"/>
+      <c r="AU74" s="77"/>
+      <c r="AV74" s="77"/>
+      <c r="AW74" s="55"/>
+      <c r="AX74" s="82"/>
+      <c r="AY74" s="83"/>
+      <c r="AZ74" s="83"/>
+      <c r="BA74" s="83"/>
+      <c r="BB74" s="83"/>
+      <c r="BC74" s="5"/>
+      <c r="BF74" s="5"/>
+    </row>
+    <row r="75" spans="8:66" x14ac:dyDescent="0.2">
+      <c r="J75" s="7"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA75" s="89"/>
+      <c r="AB75" s="89"/>
+      <c r="AC75" s="89"/>
+      <c r="AD75" s="89"/>
+      <c r="AE75" s="89"/>
+      <c r="AF75" s="89"/>
+      <c r="AG75" s="10"/>
+      <c r="AH75" s="10"/>
+      <c r="AI75" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ75" s="59"/>
+      <c r="AK75" s="59"/>
+      <c r="AL75" s="79"/>
+      <c r="AM75" s="79"/>
+      <c r="AN75" s="79"/>
+      <c r="AO75" s="55"/>
+      <c r="AP75" s="55"/>
+      <c r="AQ75" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR75" s="59"/>
+      <c r="AS75" s="59"/>
+      <c r="AT75" s="79"/>
+      <c r="AU75" s="79"/>
+      <c r="AV75" s="79"/>
+      <c r="AW75" s="55"/>
+      <c r="AX75" s="82"/>
+      <c r="AY75" s="83"/>
+      <c r="AZ75" s="83"/>
+      <c r="BA75" s="83"/>
+      <c r="BB75" s="83"/>
+      <c r="BC75" s="5"/>
+      <c r="BF75" s="5"/>
+    </row>
+    <row r="76" spans="8:66" x14ac:dyDescent="0.2">
+      <c r="J76" s="7"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA76" s="91"/>
+      <c r="AB76" s="91"/>
+      <c r="AC76" s="91"/>
+      <c r="AD76" s="91"/>
+      <c r="AE76" s="91"/>
+      <c r="AF76" s="91"/>
+      <c r="AG76" s="10"/>
+      <c r="AH76" s="10"/>
+      <c r="AI76" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ76" s="68"/>
+      <c r="AK76" s="68"/>
+      <c r="AL76" s="69"/>
+      <c r="AM76" s="69"/>
+      <c r="AN76" s="69"/>
+      <c r="AO76" s="55"/>
+      <c r="AP76" s="55"/>
+      <c r="AQ76" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR76" s="59"/>
+      <c r="AS76" s="59"/>
+      <c r="AT76" s="59"/>
+      <c r="AU76" s="59"/>
+      <c r="AV76" s="59"/>
+      <c r="AW76" s="55"/>
+      <c r="AX76" s="82"/>
+      <c r="AY76" s="83"/>
+      <c r="AZ76" s="83"/>
+      <c r="BA76" s="83"/>
+      <c r="BB76" s="83"/>
+      <c r="BC76" s="5"/>
+      <c r="BF76" s="5"/>
+    </row>
+    <row r="77" spans="8:66" x14ac:dyDescent="0.2">
+      <c r="J77" s="7"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="17"/>
+      <c r="Z77" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA77" s="89"/>
+      <c r="AB77" s="89"/>
+      <c r="AC77" s="89"/>
+      <c r="AD77" s="89"/>
+      <c r="AE77" s="89"/>
+      <c r="AF77" s="89"/>
+      <c r="AG77" s="10"/>
+      <c r="AH77" s="10"/>
+      <c r="AI77" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ77" s="59"/>
+      <c r="AK77" s="59"/>
+      <c r="AL77" s="79"/>
+      <c r="AM77" s="79"/>
+      <c r="AN77" s="79"/>
+      <c r="AO77" s="55"/>
+      <c r="AP77" s="55"/>
+      <c r="AQ77" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR77" s="86"/>
+      <c r="AS77" s="86"/>
+      <c r="AT77" s="86"/>
+      <c r="AU77" s="86"/>
+      <c r="AV77" s="86"/>
+      <c r="AW77" s="55"/>
+      <c r="AX77" s="82"/>
+      <c r="AY77" s="83"/>
+      <c r="AZ77" s="83"/>
+      <c r="BA77" s="83"/>
+      <c r="BB77" s="83"/>
+      <c r="BC77" s="5"/>
+      <c r="BF77" s="5"/>
+    </row>
+    <row r="78" spans="8:66" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="71"/>
+      <c r="Z78" s="72"/>
+      <c r="AA78" s="72"/>
+      <c r="AB78" s="72"/>
+      <c r="AC78" s="72"/>
+      <c r="AD78" s="72"/>
+      <c r="AE78" s="72"/>
+      <c r="AF78" s="72"/>
+      <c r="AG78" s="72"/>
+      <c r="AH78" s="72"/>
+      <c r="AI78" s="57"/>
+      <c r="AJ78" s="57"/>
+      <c r="AK78" s="57"/>
+      <c r="AL78" s="57"/>
+      <c r="AM78" s="57"/>
+      <c r="AN78" s="57"/>
+      <c r="AO78" s="57"/>
+      <c r="AP78" s="57"/>
+      <c r="AQ78" s="57"/>
+      <c r="AR78" s="57"/>
+      <c r="AS78" s="57"/>
+      <c r="AT78" s="57"/>
+      <c r="AU78" s="57"/>
+      <c r="AV78" s="57"/>
+      <c r="AW78" s="57"/>
+      <c r="AX78" s="58"/>
+      <c r="AY78" s="58"/>
+      <c r="AZ78" s="58"/>
+      <c r="BA78" s="58"/>
+      <c r="BB78" s="58"/>
+      <c r="BC78" s="5"/>
+      <c r="BF78" s="5"/>
+      <c r="BG78" s="5"/>
+      <c r="BH78" s="5"/>
+      <c r="BL78" s="4"/>
+      <c r="BM78" s="4"/>
+      <c r="BN78" s="4"/>
+    </row>
+    <row r="79" spans="8:66" x14ac:dyDescent="0.2">
+      <c r="J79" s="7"/>
+      <c r="K79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="10"/>
+      <c r="AB79" s="10"/>
+      <c r="AC79" s="10"/>
+      <c r="AD79" s="10"/>
+      <c r="AE79" s="10"/>
+      <c r="AF79" s="10"/>
+      <c r="AG79" s="10"/>
+      <c r="AH79" s="10"/>
+      <c r="AI79" s="5"/>
+      <c r="AJ79" s="5"/>
+      <c r="AK79" s="5"/>
+      <c r="AL79" s="5"/>
+      <c r="AM79" s="5"/>
+      <c r="AN79" s="5"/>
+      <c r="AO79" s="5"/>
+      <c r="AP79" s="5"/>
+      <c r="AQ79" s="5"/>
+      <c r="AR79" s="5"/>
+      <c r="AS79" s="5"/>
+      <c r="AT79" s="5"/>
+      <c r="AU79" s="5"/>
+      <c r="AV79" s="5"/>
+      <c r="AW79" s="5"/>
+      <c r="AX79" s="4"/>
+      <c r="AY79" s="4"/>
+      <c r="AZ79" s="4"/>
+      <c r="BA79" s="4"/>
+      <c r="BB79" s="4"/>
+      <c r="BC79" s="5"/>
+      <c r="BD79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF79" s="5"/>
+    </row>
+    <row r="80" spans="8:66" x14ac:dyDescent="0.2">
+      <c r="J80" s="7"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5"/>
+      <c r="AK80" s="5"/>
+      <c r="AL80" s="5"/>
+      <c r="AM80" s="5"/>
+      <c r="AN80" s="5"/>
+      <c r="AO80" s="5"/>
+      <c r="AP80" s="5"/>
+      <c r="AQ80" s="5"/>
+      <c r="AR80" s="5"/>
+      <c r="AS80" s="5"/>
+      <c r="AT80" s="5"/>
+      <c r="AU80" s="5"/>
+      <c r="AV80" s="5"/>
+      <c r="AW80" s="5"/>
+      <c r="AX80" s="4"/>
+      <c r="AY80" s="4"/>
+      <c r="AZ80" s="4"/>
+      <c r="BA80" s="4"/>
+      <c r="BB80" s="4"/>
+      <c r="BC80" s="4"/>
+      <c r="BF80" s="5"/>
+      <c r="BG80" s="5"/>
+      <c r="BH80" s="5"/>
+      <c r="BI80" s="5"/>
+      <c r="BL80" s="4"/>
+      <c r="BM80" s="4"/>
+      <c r="BN80" s="4"/>
+    </row>
+    <row r="81" spans="10:55" x14ac:dyDescent="0.2">
+      <c r="J81" s="7"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="5"/>
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="5"/>
+      <c r="AJ81" s="5"/>
+      <c r="AK81" s="5"/>
+      <c r="AL81" s="5"/>
+      <c r="AM81" s="5"/>
+      <c r="AN81" s="5"/>
+      <c r="AO81" s="5"/>
+      <c r="AP81" s="5"/>
+      <c r="AQ81" s="5"/>
+      <c r="AR81" s="5"/>
+      <c r="AS81" s="5"/>
+      <c r="AT81" s="5"/>
+      <c r="AU81" s="5"/>
+      <c r="AV81" s="5"/>
+      <c r="AW81" s="5"/>
+      <c r="AX81" s="5"/>
+      <c r="AY81" s="5"/>
+      <c r="AZ81" s="5"/>
+      <c r="BA81" s="5"/>
+      <c r="BB81" s="5"/>
+      <c r="BC81" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="94">
+    <mergeCell ref="U35:AA35"/>
+    <mergeCell ref="Z75:AF75"/>
+    <mergeCell ref="Z76:AF76"/>
+    <mergeCell ref="Z77:AF77"/>
+    <mergeCell ref="W50:AC50"/>
+    <mergeCell ref="W51:AC51"/>
+    <mergeCell ref="W52:AC52"/>
+    <mergeCell ref="W53:AC53"/>
+    <mergeCell ref="W55:AC55"/>
+    <mergeCell ref="W56:AC56"/>
+    <mergeCell ref="W57:AC57"/>
+    <mergeCell ref="Y65:AW65"/>
+    <mergeCell ref="Y66:AF67"/>
+    <mergeCell ref="AQ71:AV71"/>
+    <mergeCell ref="AQ73:AV73"/>
+    <mergeCell ref="AQ74:AV74"/>
+    <mergeCell ref="AI71:AN71"/>
+    <mergeCell ref="AI73:AN73"/>
+    <mergeCell ref="AI74:AN74"/>
+    <mergeCell ref="AI72:AN72"/>
+    <mergeCell ref="AQ72:AV72"/>
+    <mergeCell ref="Z70:AF70"/>
+    <mergeCell ref="Z71:AF71"/>
+    <mergeCell ref="Z72:AF72"/>
+    <mergeCell ref="Z73:AF73"/>
+    <mergeCell ref="AI66:AN67"/>
+    <mergeCell ref="AQ66:AV67"/>
+    <mergeCell ref="AY77:BB77"/>
+    <mergeCell ref="AQ77:AV77"/>
+    <mergeCell ref="AI76:AK76"/>
+    <mergeCell ref="AL76:AN76"/>
+    <mergeCell ref="AY76:BB76"/>
+    <mergeCell ref="AY75:BB75"/>
+    <mergeCell ref="AY74:BB74"/>
+    <mergeCell ref="AY73:BB73"/>
+    <mergeCell ref="AY72:BB72"/>
+    <mergeCell ref="AY71:BB71"/>
+    <mergeCell ref="AY70:BB70"/>
+    <mergeCell ref="AI70:AN70"/>
+    <mergeCell ref="AY67:BB67"/>
     <mergeCell ref="AN54:AP54"/>
     <mergeCell ref="AN55:AP55"/>
     <mergeCell ref="AN56:AP56"/>
@@ -5626,6 +6821,8 @@
     <mergeCell ref="AN53:AP53"/>
     <mergeCell ref="T23:BB23"/>
     <mergeCell ref="AN50:AP50"/>
+    <mergeCell ref="U33:AA33"/>
+    <mergeCell ref="U34:AA34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/files/convención2020.xlsx
+++ b/files/convención2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/GitHub/tresquintos.github.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEECD990-ED28-6243-8449-B0FD64ABA0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92764FA-59A7-5C43-B2CA-D8C7BE71D4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2047,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView tabSelected="1" topLeftCell="G18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5850,7 +5850,7 @@
       <c r="AT65" s="65"/>
       <c r="AU65" s="65"/>
       <c r="AV65" s="65"/>
-      <c r="AW65" s="65"/>
+      <c r="AW65" s="81"/>
       <c r="AX65" s="54"/>
       <c r="AY65" s="54"/>
       <c r="AZ65" s="54"/>
@@ -5904,7 +5904,7 @@
       <c r="AT66" s="80"/>
       <c r="AU66" s="80"/>
       <c r="AV66" s="80"/>
-      <c r="AW66" s="51"/>
+      <c r="AW66" s="58"/>
       <c r="AX66" s="58"/>
       <c r="AY66" s="58"/>
       <c r="AZ66" s="58"/>
@@ -6556,7 +6556,7 @@
       <c r="AT78" s="57"/>
       <c r="AU78" s="57"/>
       <c r="AV78" s="57"/>
-      <c r="AW78" s="57"/>
+      <c r="AW78" s="58"/>
       <c r="AX78" s="58"/>
       <c r="AY78" s="58"/>
       <c r="AZ78" s="58"/>
